--- a/Reactivos.xlsx
+++ b/Reactivos.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAW MAÑANA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\Desktop\queChimbaSos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A332C0-8738-4464-BC0A-86142F3BEE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20970" windowHeight="8880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de reactivos del almacé" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Formato" sheetId="4" r:id="rId2"/>
     <sheet name="Listado de materiales del almac" sheetId="2" r:id="rId3"/>
     <sheet name="Listado de productos auxiliares" sheetId="3" r:id="rId4"/>
+    <sheet name="Inventario_reactivos" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$A$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Formato!$A$1:$A$159</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="266">
   <si>
     <t>Reactivos</t>
   </si>
@@ -804,13 +806,31 @@
     <t>Instrumental Electrónico</t>
   </si>
   <si>
-    <t>coduoiv</t>
+    <t>Codigo del formato</t>
+  </si>
+  <si>
+    <t>Codigo de formato</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID- Producto</t>
+  </si>
+  <si>
+    <t>ID- Ubicación</t>
+  </si>
+  <si>
+    <t>Fecha_Caducidad</t>
+  </si>
+  <si>
+    <t>ID - Almacen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m\-yyyy"/>
     <numFmt numFmtId="165" formatCode="d\-m\-yyyy"/>
@@ -1065,13 +1085,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,7 +1104,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1106,18 +1125,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1150,25 +1165,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,10 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,83 +1406,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="52" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.109375" customWidth="1"/>
+    <col min="12" max="12" width="31.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M1" s="20"/>
-    </row>
+    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="21"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1">
+    <row r="4" spans="2:13" ht="14.4" thickBot="1">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="3">
-        <f>VLOOKUP(D4,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D4,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F4" s="4">
@@ -1503,9 +1512,9 @@
       <c r="K4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4" thickBot="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="3">
-        <f>VLOOKUP(D5,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D5,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F5" s="4">
@@ -1537,9 +1546,9 @@
       <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" ht="14.4" thickBot="1">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3">
-        <f>VLOOKUP(D6,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D6,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F6" s="4">
@@ -1571,9 +1580,9 @@
       <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" ht="14.4" thickBot="1">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1584,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3">
-        <f>VLOOKUP(D7,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D7,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F7" s="4">
@@ -1605,9 +1614,9 @@
       <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="14.4" thickBot="1">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="3">
-        <f>VLOOKUP(D8,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D8,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F8" s="4">
@@ -1639,9 +1648,9 @@
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4" thickBot="1">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="3">
-        <f>VLOOKUP(D9,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D9,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F9" s="4">
@@ -1673,9 +1682,9 @@
       <c r="K9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="14.4" thickBot="1">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="3">
-        <f>VLOOKUP(D10,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D10,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F10" s="4">
@@ -1707,9 +1716,9 @@
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4" thickBot="1">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1720,7 +1729,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="3">
-        <f>VLOOKUP(D11,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D11,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F11" s="4">
@@ -1741,9 +1750,9 @@
       <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4" thickBot="1">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="3">
-        <f>VLOOKUP(D12,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D12,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F12" s="4">
@@ -1775,10 +1784,10 @@
       <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B13" s="9">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" ht="13.8" thickBot="1">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1788,7 +1797,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="3">
-        <f>VLOOKUP(D13,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D13,Formato!$A$3:$B$16,2,)</f>
         <v>5</v>
       </c>
       <c r="F13" s="4">
@@ -1809,10 +1818,10 @@
       <c r="K13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B14" s="9">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:13" ht="13.8" thickBot="1">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1822,7 +1831,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="3">
-        <f>VLOOKUP(D14,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D14,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F14" s="4">
@@ -1843,10 +1852,10 @@
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B15" s="9">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" ht="13.8" thickBot="1">
+      <c r="B15" s="8">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1856,7 +1865,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="3">
-        <f>VLOOKUP(D15,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D15,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F15" s="4">
@@ -1877,10 +1886,10 @@
       <c r="K15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="2:13" ht="13.5" thickBot="1">
-      <c r="B16" s="9">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" ht="13.8" thickBot="1">
+      <c r="B16" s="8">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1890,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="3">
-        <f>VLOOKUP(D16,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D16,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F16" s="4">
@@ -1911,20 +1920,20 @@
       <c r="K16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B17" s="9">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B17" s="8">
         <v>14</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="3">
-        <f>VLOOKUP(D17,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D17,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F17" s="4">
@@ -1945,10 +1954,10 @@
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B18" s="9">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B18" s="8">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1958,7 +1967,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="3">
-        <f>VLOOKUP(D18,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D18,Formato!$A$3:$B$16,2,)</f>
         <v>8</v>
       </c>
       <c r="F18" s="4">
@@ -1979,10 +1988,10 @@
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B19" s="9">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B19" s="8">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1992,7 +2001,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="3">
-        <f>VLOOKUP(D19,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D19,Formato!$A$3:$B$16,2,)</f>
         <v>8</v>
       </c>
       <c r="F19" s="4">
@@ -2013,10 +2022,10 @@
       <c r="K19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B20" s="9">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B20" s="8">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2026,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="3">
-        <f>VLOOKUP(D20,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D20,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F20" s="4">
@@ -2047,10 +2056,10 @@
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B21" s="9">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B21" s="8">
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2060,7 +2069,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="3">
-        <f>VLOOKUP(D21,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D21,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F21" s="4">
@@ -2081,10 +2090,10 @@
       <c r="K21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B22" s="9">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B22" s="8">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2094,7 +2103,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="3">
-        <f>VLOOKUP(D22,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D22,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F22" s="4">
@@ -2112,13 +2121,13 @@
       <c r="J22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>41214</v>
       </c>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B23" s="9">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B23" s="8">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2128,7 +2137,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="3">
-        <f>VLOOKUP(D23,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D23,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F23" s="4">
@@ -2146,13 +2155,13 @@
       <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>42552</v>
       </c>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B24" s="9">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B24" s="8">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2162,7 +2171,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="3">
-        <f>VLOOKUP(D24,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D24,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F24" s="4">
@@ -2183,10 +2192,10 @@
       <c r="K24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B25" s="9">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B25" s="8">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2196,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="3">
-        <f>VLOOKUP(D25,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D25,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F25" s="4">
@@ -2214,13 +2223,13 @@
       <c r="J25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>42430</v>
       </c>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B26" s="9">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B26" s="8">
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2230,7 +2239,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="3">
-        <f>VLOOKUP(D26,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D26,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F26" s="4">
@@ -2248,13 +2257,13 @@
       <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>40422</v>
       </c>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B27" s="9">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B27" s="8">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2264,7 +2273,7 @@
         <v>31</v>
       </c>
       <c r="E27" s="3">
-        <f>VLOOKUP(D27,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D27,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F27" s="4">
@@ -2285,10 +2294,10 @@
       <c r="K27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B28" s="9">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B28" s="8">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2298,7 +2307,7 @@
         <v>31</v>
       </c>
       <c r="E28" s="3">
-        <f>VLOOKUP(D28,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D28,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F28" s="4">
@@ -2319,10 +2328,10 @@
       <c r="K28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B29" s="9">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B29" s="8">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2332,7 +2341,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="3">
-        <f>VLOOKUP(D29,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D29,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F29" s="4">
@@ -2353,10 +2362,10 @@
       <c r="K29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B30" s="9">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B30" s="8">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2366,7 +2375,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="3">
-        <f>VLOOKUP(D30,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D30,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F30" s="4">
@@ -2387,10 +2396,10 @@
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B31" s="9">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B31" s="8">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2400,7 +2409,7 @@
         <v>34</v>
       </c>
       <c r="E31" s="3">
-        <f>VLOOKUP(D31,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D31,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F31" s="4">
@@ -2421,10 +2430,10 @@
       <c r="K31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B32" s="9">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B32" s="8">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2434,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="3">
-        <f>VLOOKUP(D32,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D32,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F32" s="4">
@@ -2455,10 +2464,10 @@
       <c r="K32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B33" s="9">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B33" s="8">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -2468,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="3">
-        <f>VLOOKUP(D33,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D33,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F33" s="4">
@@ -2489,10 +2498,10 @@
       <c r="K33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B34" s="9">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B34" s="8">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2502,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="3">
-        <f>VLOOKUP(D34,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D34,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F34" s="4">
@@ -2523,10 +2532,10 @@
       <c r="K34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B35" s="9">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B35" s="8">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2536,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="3">
-        <f>VLOOKUP(D35,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D35,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F35" s="4">
@@ -2557,10 +2566,10 @@
       <c r="K35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B36" s="9">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B36" s="8">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2570,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="3">
-        <f>VLOOKUP(D36,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D36,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F36" s="4">
@@ -2588,13 +2597,13 @@
       <c r="J36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>42278</v>
       </c>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B37" s="9">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B37" s="8">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2604,7 +2613,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="3">
-        <f>VLOOKUP(D37,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D37,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F37" s="4">
@@ -2625,10 +2634,10 @@
       <c r="K37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B38" s="9">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B38" s="8">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2638,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="3">
-        <f>VLOOKUP(D38,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D38,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F38" s="4">
@@ -2656,13 +2665,13 @@
       <c r="J38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>42036</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B39" s="9">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B39" s="8">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2672,7 +2681,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="3">
-        <f>VLOOKUP(D39,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D39,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F39" s="4">
@@ -2693,10 +2702,10 @@
       <c r="K39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B40" s="9">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B40" s="8">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2706,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="E40" s="3">
-        <f>VLOOKUP(D40,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D40,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F40" s="4">
@@ -2727,10 +2736,10 @@
       <c r="K40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B41" s="9">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B41" s="8">
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2740,7 +2749,7 @@
         <v>34</v>
       </c>
       <c r="E41" s="3">
-        <f>VLOOKUP(D41,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D41,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F41" s="4">
@@ -2761,10 +2770,10 @@
       <c r="K41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B42" s="9">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B42" s="8">
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2774,7 +2783,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="3">
-        <f>VLOOKUP(D42,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D42,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F42" s="4">
@@ -2786,7 +2795,7 @@
       <c r="H42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -2795,10 +2804,10 @@
       <c r="K42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B43" s="9">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B43" s="8">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2808,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="3">
-        <f>VLOOKUP(D43,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D43,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F43" s="4">
@@ -2820,7 +2829,7 @@
       <c r="H43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -2829,10 +2838,10 @@
       <c r="K43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B44" s="9">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B44" s="8">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2842,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="3">
-        <f>VLOOKUP(D44,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D44,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F44" s="4">
@@ -2854,7 +2863,7 @@
       <c r="H44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="3" t="s">
@@ -2863,10 +2872,10 @@
       <c r="K44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B45" s="9">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B45" s="8">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2876,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="3">
-        <f>VLOOKUP(D45,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D45,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F45" s="4">
@@ -2894,13 +2903,13 @@
       <c r="J45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <v>43678</v>
       </c>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B46" s="9">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B46" s="8">
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2910,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="3">
-        <f>VLOOKUP(D46,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D46,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F46" s="4">
@@ -2931,10 +2940,10 @@
       <c r="K46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B47" s="9">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B47" s="8">
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2944,7 +2953,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="3">
-        <f>VLOOKUP(D47,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D47,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F47" s="4">
@@ -2965,10 +2974,10 @@
       <c r="K47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B48" s="9">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B48" s="8">
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2978,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="3">
-        <f>VLOOKUP(D48,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D48,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F48" s="4">
@@ -2990,7 +2999,7 @@
       <c r="H48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="3" t="s">
@@ -2999,10 +3008,10 @@
       <c r="K48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B49" s="9">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B49" s="8">
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -3012,7 +3021,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="3">
-        <f>VLOOKUP(D49,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D49,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F49" s="4">
@@ -3024,7 +3033,7 @@
       <c r="H49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -3033,10 +3042,10 @@
       <c r="K49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B50" s="9">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B50" s="8">
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -3046,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="3">
-        <f>VLOOKUP(D50,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D50,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F50" s="4">
@@ -3067,10 +3076,10 @@
       <c r="K50" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B51" s="9">
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B51" s="8">
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -3080,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="3">
-        <f>VLOOKUP(D51,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D51,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F51" s="4">
@@ -3101,10 +3110,10 @@
       <c r="K51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B52" s="9">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B52" s="8">
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -3114,7 +3123,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="3">
-        <f>VLOOKUP(D52,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D52,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F52" s="4">
@@ -3135,10 +3144,10 @@
       <c r="K52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B53" s="9">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B53" s="8">
         <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -3148,7 +3157,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="3">
-        <f>VLOOKUP(D53,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D53,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F53" s="4">
@@ -3169,10 +3178,10 @@
       <c r="K53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B54" s="9">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B54" s="8">
         <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3182,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="3">
-        <f>VLOOKUP(D54,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D54,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F54" s="4">
@@ -3203,10 +3212,10 @@
       <c r="K54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B55" s="9">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B55" s="8">
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -3216,7 +3225,7 @@
         <v>31</v>
       </c>
       <c r="E55" s="3">
-        <f>VLOOKUP(D55,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D55,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F55" s="4">
@@ -3237,10 +3246,10 @@
       <c r="K55" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B56" s="9">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B56" s="8">
         <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3250,7 +3259,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="3">
-        <f>VLOOKUP(D56,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D56,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F56" s="4">
@@ -3268,13 +3277,13 @@
       <c r="J56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>40725</v>
       </c>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B57" s="9">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B57" s="8">
         <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -3284,7 +3293,7 @@
         <v>31</v>
       </c>
       <c r="E57" s="3">
-        <f>VLOOKUP(D57,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D57,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F57" s="4">
@@ -3305,10 +3314,10 @@
       <c r="K57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B58" s="9">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B58" s="8">
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3318,7 +3327,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="3">
-        <f>VLOOKUP(D58,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D58,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F58" s="4">
@@ -3330,7 +3339,7 @@
       <c r="H58" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J58" s="3" t="s">
@@ -3339,10 +3348,10 @@
       <c r="K58" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B59" s="9">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B59" s="8">
         <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3352,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="E59" s="3">
-        <f>VLOOKUP(D59,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D59,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F59" s="4">
@@ -3364,7 +3373,7 @@
       <c r="H59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="I59" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J59" s="3" t="s">
@@ -3373,10 +3382,10 @@
       <c r="K59" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B60" s="9">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B60" s="8">
         <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -3386,7 +3395,7 @@
         <v>31</v>
       </c>
       <c r="E60" s="3">
-        <f>VLOOKUP(D60,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D60,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F60" s="4">
@@ -3398,7 +3407,7 @@
       <c r="H60" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="I60" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -3407,10 +3416,10 @@
       <c r="K60" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B61" s="9">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B61" s="8">
         <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -3420,7 +3429,7 @@
         <v>31</v>
       </c>
       <c r="E61" s="3">
-        <f>VLOOKUP(D61,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D61,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F61" s="4">
@@ -3432,7 +3441,7 @@
       <c r="H61" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="I61" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -3441,10 +3450,10 @@
       <c r="K61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B62" s="9">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B62" s="8">
         <v>59</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3454,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="3">
-        <f>VLOOKUP(D62,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D62,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F62" s="4">
@@ -3475,10 +3484,10 @@
       <c r="K62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L62" s="8"/>
-    </row>
-    <row r="63" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B63" s="9">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B63" s="8">
         <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -3488,7 +3497,7 @@
         <v>15</v>
       </c>
       <c r="E63" s="3">
-        <f>VLOOKUP(D63,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D63,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F63" s="4">
@@ -3509,10 +3518,10 @@
       <c r="K63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B64" s="9">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B64" s="8">
         <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -3522,7 +3531,7 @@
         <v>34</v>
       </c>
       <c r="E64" s="3">
-        <f>VLOOKUP(D64,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D64,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F64" s="4">
@@ -3543,10 +3552,10 @@
       <c r="K64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="8"/>
-    </row>
-    <row r="65" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B65" s="9">
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B65" s="8">
         <v>62</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -3556,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="3">
-        <f>VLOOKUP(D65,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D65,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F65" s="4">
@@ -3568,7 +3577,7 @@
       <c r="H65" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -3577,10 +3586,10 @@
       <c r="K65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L65" s="8"/>
-    </row>
-    <row r="66" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B66" s="9">
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B66" s="8">
         <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3590,7 +3599,7 @@
         <v>34</v>
       </c>
       <c r="E66" s="3">
-        <f>VLOOKUP(D66,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D66,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F66" s="4">
@@ -3611,10 +3620,10 @@
       <c r="K66" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L66" s="8"/>
-    </row>
-    <row r="67" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B67" s="9">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B67" s="8">
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3624,7 +3633,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="3">
-        <f>VLOOKUP(D67,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D67,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F67" s="4">
@@ -3645,10 +3654,10 @@
       <c r="K67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L67" s="8"/>
-    </row>
-    <row r="68" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B68" s="9">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B68" s="8">
         <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3658,7 +3667,7 @@
         <v>31</v>
       </c>
       <c r="E68" s="3">
-        <f>VLOOKUP(D68,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D68,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F68" s="4">
@@ -3679,10 +3688,10 @@
       <c r="K68" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B69" s="9">
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B69" s="8">
         <v>66</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -3692,7 +3701,7 @@
         <v>29</v>
       </c>
       <c r="E69" s="3">
-        <f>VLOOKUP(D69,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D69,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F69" s="4">
@@ -3710,13 +3719,13 @@
       <c r="J69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="12">
         <v>42155</v>
       </c>
-      <c r="L69" s="8"/>
-    </row>
-    <row r="70" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B70" s="9">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B70" s="8">
         <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -3726,7 +3735,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="3">
-        <f>VLOOKUP(D70,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D70,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F70" s="4">
@@ -3744,13 +3753,13 @@
       <c r="J70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="10">
         <v>46905</v>
       </c>
-      <c r="L70" s="8"/>
-    </row>
-    <row r="71" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B71" s="9">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B71" s="8">
         <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -3760,7 +3769,7 @@
         <v>15</v>
       </c>
       <c r="E71" s="3">
-        <f>VLOOKUP(D71,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D71,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F71" s="4">
@@ -3781,10 +3790,10 @@
       <c r="K71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B72" s="9">
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B72" s="8">
         <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -3794,7 +3803,7 @@
         <v>34</v>
       </c>
       <c r="E72" s="3">
-        <f>VLOOKUP(D72,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D72,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F72" s="4">
@@ -3815,10 +3824,10 @@
       <c r="K72" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="8"/>
-    </row>
-    <row r="73" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B73" s="9">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B73" s="8">
         <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -3828,7 +3837,7 @@
         <v>34</v>
       </c>
       <c r="E73" s="3">
-        <f>VLOOKUP(D73,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D73,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F73" s="4">
@@ -3849,10 +3858,10 @@
       <c r="K73" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B74" s="9">
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B74" s="8">
         <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3862,7 +3871,7 @@
         <v>34</v>
       </c>
       <c r="E74" s="3">
-        <f>VLOOKUP(D74,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D74,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F74" s="4">
@@ -3883,10 +3892,10 @@
       <c r="K74" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L74" s="8"/>
-    </row>
-    <row r="75" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B75" s="9">
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B75" s="8">
         <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3896,7 +3905,7 @@
         <v>34</v>
       </c>
       <c r="E75" s="3">
-        <f>VLOOKUP(D75,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D75,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F75" s="4">
@@ -3917,10 +3926,10 @@
       <c r="K75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L75" s="8"/>
-    </row>
-    <row r="76" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B76" s="9">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B76" s="8">
         <v>73</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -3930,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="E76" s="3">
-        <f>VLOOKUP(D76,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D76,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F76" s="4">
@@ -3951,10 +3960,10 @@
       <c r="K76" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L76" s="8"/>
-    </row>
-    <row r="77" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B77" s="9">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B77" s="8">
         <v>74</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -3964,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="3">
-        <f>VLOOKUP(D77,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D77,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F77" s="4">
@@ -3982,13 +3991,13 @@
       <c r="J77" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="10">
         <v>42064</v>
       </c>
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B78" s="9">
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B78" s="8">
         <v>75</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3998,7 +4007,7 @@
         <v>112</v>
       </c>
       <c r="E78" s="3">
-        <f>VLOOKUP(D78,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D78,Formato!$A$3:$B$16,2,)</f>
         <v>9</v>
       </c>
       <c r="F78" s="4">
@@ -4016,13 +4025,13 @@
       <c r="J78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="10">
         <v>41183</v>
       </c>
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B79" s="9">
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B79" s="8">
         <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -4032,7 +4041,7 @@
         <v>34</v>
       </c>
       <c r="E79" s="3">
-        <f>VLOOKUP(D79,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D79,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F79" s="4">
@@ -4050,13 +4059,13 @@
       <c r="J79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K79" s="13">
         <v>40087</v>
       </c>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B80" s="9">
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B80" s="8">
         <v>77</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -4066,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="E80" s="3">
-        <f>VLOOKUP(D80,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D80,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F80" s="4">
@@ -4084,13 +4093,13 @@
       <c r="J80" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K80" s="14">
+      <c r="K80" s="13">
         <v>39934</v>
       </c>
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B81" s="9">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B81" s="8">
         <v>78</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -4100,7 +4109,7 @@
         <v>31</v>
       </c>
       <c r="E81" s="3">
-        <f>VLOOKUP(D81,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D81,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F81" s="4">
@@ -4118,13 +4127,13 @@
       <c r="J81" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K81" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B82" s="9">
+      <c r="K81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B82" s="8">
         <v>79</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -4134,7 +4143,7 @@
         <v>11</v>
       </c>
       <c r="E82" s="3">
-        <f>VLOOKUP(D82,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D82,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F82" s="4">
@@ -4146,7 +4155,7 @@
       <c r="H82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I82" s="12" t="s">
+      <c r="I82" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -4155,10 +4164,10 @@
       <c r="K82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L82" s="8"/>
-    </row>
-    <row r="83" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B83" s="9">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B83" s="8">
         <v>80</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -4168,7 +4177,7 @@
         <v>34</v>
       </c>
       <c r="E83" s="3">
-        <f>VLOOKUP(D83,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D83,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F83" s="4">
@@ -4180,7 +4189,7 @@
       <c r="H83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I83" s="12" t="s">
+      <c r="I83" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J83" s="3" t="s">
@@ -4189,10 +4198,10 @@
       <c r="K83" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B84" s="9">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B84" s="8">
         <v>81</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -4202,7 +4211,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="3">
-        <f>VLOOKUP(D84,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D84,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F84" s="4">
@@ -4214,19 +4223,19 @@
       <c r="H84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I84" s="12" t="s">
+      <c r="I84" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="10">
         <v>42614</v>
       </c>
-      <c r="L84" s="8"/>
-    </row>
-    <row r="85" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B85" s="9">
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B85" s="8">
         <v>82</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -4236,7 +4245,7 @@
         <v>34</v>
       </c>
       <c r="E85" s="3">
-        <f>VLOOKUP(D85,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D85,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F85" s="4">
@@ -4248,7 +4257,7 @@
       <c r="H85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I85" s="12" t="s">
+      <c r="I85" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J85" s="3" t="s">
@@ -4257,10 +4266,10 @@
       <c r="K85" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B86" s="9">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B86" s="8">
         <v>83</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -4270,7 +4279,7 @@
         <v>34</v>
       </c>
       <c r="E86" s="3">
-        <f>VLOOKUP(D86,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D86,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F86" s="4">
@@ -4282,7 +4291,7 @@
       <c r="H86" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="I86" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J86" s="3" t="s">
@@ -4291,10 +4300,10 @@
       <c r="K86" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B87" s="9">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B87" s="8">
         <v>84</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -4304,7 +4313,7 @@
         <v>31</v>
       </c>
       <c r="E87" s="3">
-        <f>VLOOKUP(D87,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D87,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F87" s="4">
@@ -4316,7 +4325,7 @@
       <c r="H87" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I87" s="12" t="s">
+      <c r="I87" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J87" s="3" t="s">
@@ -4325,10 +4334,10 @@
       <c r="K87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B88" s="9">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B88" s="8">
         <v>85</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -4338,7 +4347,7 @@
         <v>31</v>
       </c>
       <c r="E88" s="3">
-        <f>VLOOKUP(D88,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D88,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F88" s="4">
@@ -4350,19 +4359,19 @@
       <c r="H88" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="12" t="s">
+      <c r="I88" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="12">
         <v>39294</v>
       </c>
-      <c r="L88" s="8"/>
-    </row>
-    <row r="89" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B89" s="9">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B89" s="8">
         <v>86</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -4372,7 +4381,7 @@
         <v>15</v>
       </c>
       <c r="E89" s="3">
-        <f>VLOOKUP(D89,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D89,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F89" s="4">
@@ -4384,7 +4393,7 @@
       <c r="H89" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I89" s="12" t="s">
+      <c r="I89" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J89" s="3" t="s">
@@ -4393,10 +4402,10 @@
       <c r="K89" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B90" s="9">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B90" s="8">
         <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -4406,7 +4415,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="3">
-        <f>VLOOKUP(D90,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D90,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F90" s="4">
@@ -4418,19 +4427,19 @@
       <c r="H90" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="I90" s="11" t="s">
         <v>128</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90" s="10">
         <v>47150</v>
       </c>
-      <c r="L90" s="8"/>
-    </row>
-    <row r="91" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B91" s="9">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B91" s="8">
         <v>88</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4440,7 +4449,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="3">
-        <f>VLOOKUP(D91,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D91,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F91" s="4">
@@ -4452,19 +4461,19 @@
       <c r="H91" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I91" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91" s="10">
         <v>40330</v>
       </c>
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B92" s="9">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B92" s="8">
         <v>89</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -4474,7 +4483,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="3">
-        <f>VLOOKUP(D92,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D92,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F92" s="4">
@@ -4486,19 +4495,19 @@
       <c r="H92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="I92" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="12">
         <v>38301</v>
       </c>
-      <c r="L92" s="8"/>
-    </row>
-    <row r="93" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B93" s="9">
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B93" s="8">
         <v>90</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -4508,7 +4517,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="3">
-        <f>VLOOKUP(D93,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D93,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F93" s="4">
@@ -4520,7 +4529,7 @@
       <c r="H93" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I93" s="12" t="s">
+      <c r="I93" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -4529,10 +4538,10 @@
       <c r="K93" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B94" s="9">
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B94" s="8">
         <v>91</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4542,7 +4551,7 @@
         <v>31</v>
       </c>
       <c r="E94" s="3">
-        <f>VLOOKUP(D94,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D94,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F94" s="4">
@@ -4554,7 +4563,7 @@
       <c r="H94" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I94" s="12" t="s">
+      <c r="I94" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J94" s="3" t="s">
@@ -4563,10 +4572,10 @@
       <c r="K94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B95" s="9">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B95" s="8">
         <v>92</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -4576,7 +4585,7 @@
         <v>31</v>
       </c>
       <c r="E95" s="3">
-        <f>VLOOKUP(D95,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D95,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F95" s="4">
@@ -4588,7 +4597,7 @@
       <c r="H95" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="I95" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J95" s="3" t="s">
@@ -4597,10 +4606,10 @@
       <c r="K95" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B96" s="9">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B96" s="8">
         <v>93</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -4610,7 +4619,7 @@
         <v>34</v>
       </c>
       <c r="E96" s="3">
-        <f>VLOOKUP(D96,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D96,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F96" s="4">
@@ -4622,19 +4631,19 @@
       <c r="H96" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="I96" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="11">
+      <c r="K96" s="10">
         <v>41548</v>
       </c>
-      <c r="L96" s="8"/>
-    </row>
-    <row r="97" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B97" s="9">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B97" s="8">
         <v>94</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -4644,7 +4653,7 @@
         <v>29</v>
       </c>
       <c r="E97" s="3">
-        <f>VLOOKUP(D97,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D97,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F97" s="4">
@@ -4656,19 +4665,19 @@
       <c r="H97" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="I97" s="11" t="s">
         <v>137</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K97" s="10">
         <v>43009</v>
       </c>
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B98" s="9">
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B98" s="8">
         <v>95</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -4678,7 +4687,7 @@
         <v>43</v>
       </c>
       <c r="E98" s="3">
-        <f>VLOOKUP(D98,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D98,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F98" s="4">
@@ -4690,7 +4699,7 @@
       <c r="H98" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I98" s="12" t="s">
+      <c r="I98" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J98" s="3" t="s">
@@ -4699,10 +4708,10 @@
       <c r="K98" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B99" s="9">
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B99" s="8">
         <v>96</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -4712,7 +4721,7 @@
         <v>11</v>
       </c>
       <c r="E99" s="3">
-        <f>VLOOKUP(D99,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D99,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F99" s="4">
@@ -4724,7 +4733,7 @@
       <c r="H99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I99" s="12" t="s">
+      <c r="I99" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J99" s="3" t="s">
@@ -4733,10 +4742,10 @@
       <c r="K99" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B100" s="9">
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B100" s="8">
         <v>97</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -4746,7 +4755,7 @@
         <v>15</v>
       </c>
       <c r="E100" s="3">
-        <f>VLOOKUP(D100,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D100,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F100" s="4">
@@ -4758,7 +4767,7 @@
       <c r="H100" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I100" s="12" t="s">
+      <c r="I100" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J100" s="3" t="s">
@@ -4767,10 +4776,10 @@
       <c r="K100" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B101" s="9">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B101" s="8">
         <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -4780,7 +4789,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="3">
-        <f>VLOOKUP(D101,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D101,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F101" s="4">
@@ -4792,19 +4801,19 @@
       <c r="H101" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I101" s="12" t="s">
+      <c r="I101" s="11" t="s">
         <v>212</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="11">
+      <c r="K101" s="10">
         <v>45658</v>
       </c>
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B102" s="9">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B102" s="8">
         <v>99</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -4814,7 +4823,7 @@
         <v>34</v>
       </c>
       <c r="E102" s="3">
-        <f>VLOOKUP(D102,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D102,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F102" s="4">
@@ -4826,19 +4835,19 @@
       <c r="H102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K102" s="11">
+      <c r="K102" s="10">
         <v>40878</v>
       </c>
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B103" s="9">
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B103" s="8">
         <v>100</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -4848,7 +4857,7 @@
         <v>34</v>
       </c>
       <c r="E103" s="3">
-        <f>VLOOKUP(D103,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D103,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F103" s="4">
@@ -4860,19 +4869,19 @@
       <c r="H103" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I103" s="12" t="s">
+      <c r="I103" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K103" s="11">
+      <c r="K103" s="10">
         <v>40422</v>
       </c>
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B104" s="9">
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B104" s="8">
         <v>101</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -4882,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="3">
-        <f>VLOOKUP(D104,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D104,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F104" s="4">
@@ -4894,7 +4903,7 @@
       <c r="H104" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="12" t="s">
+      <c r="I104" s="11" t="s">
         <v>145</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -4903,10 +4912,10 @@
       <c r="K104" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B105" s="9">
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B105" s="8">
         <v>102</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -4916,7 +4925,7 @@
         <v>29</v>
       </c>
       <c r="E105" s="3">
-        <f>VLOOKUP(D105,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D105,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F105" s="4">
@@ -4928,7 +4937,7 @@
       <c r="H105" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I105" s="12" t="s">
+      <c r="I105" s="11" t="s">
         <v>57</v>
       </c>
       <c r="J105" s="3" t="s">
@@ -4937,10 +4946,10 @@
       <c r="K105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B106" s="9">
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B106" s="8">
         <v>103</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -4950,7 +4959,7 @@
         <v>31</v>
       </c>
       <c r="E106" s="3">
-        <f>VLOOKUP(D106,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D106,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F106" s="4">
@@ -4962,7 +4971,7 @@
       <c r="H106" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I106" s="12" t="s">
+      <c r="I106" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J106" s="3" t="s">
@@ -4971,10 +4980,10 @@
       <c r="K106" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B107" s="9">
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B107" s="8">
         <v>104</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -4984,7 +4993,7 @@
         <v>29</v>
       </c>
       <c r="E107" s="3">
-        <f>VLOOKUP(D107,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D107,Formato!$A$3:$B$16,2,)</f>
         <v>2</v>
       </c>
       <c r="F107" s="4">
@@ -4996,7 +5005,7 @@
       <c r="H107" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I107" s="12" t="s">
+      <c r="I107" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J107" s="3" t="s">
@@ -5005,10 +5014,10 @@
       <c r="K107" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B108" s="9">
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B108" s="8">
         <v>105</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5018,7 +5027,7 @@
         <v>31</v>
       </c>
       <c r="E108" s="3">
-        <f>VLOOKUP(D108,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D108,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F108" s="4">
@@ -5030,7 +5039,7 @@
       <c r="H108" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I108" s="12" t="s">
+      <c r="I108" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J108" s="3" t="s">
@@ -5039,10 +5048,10 @@
       <c r="K108" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B109" s="9">
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B109" s="8">
         <v>106</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -5052,7 +5061,7 @@
         <v>34</v>
       </c>
       <c r="E109" s="3">
-        <f>VLOOKUP(D109,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D109,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F109" s="4">
@@ -5064,7 +5073,7 @@
       <c r="H109" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I109" s="12" t="s">
+      <c r="I109" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J109" s="3" t="s">
@@ -5073,10 +5082,10 @@
       <c r="K109" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B110" s="9">
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B110" s="8">
         <v>107</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -5086,7 +5095,7 @@
         <v>43</v>
       </c>
       <c r="E110" s="3">
-        <f>VLOOKUP(D110,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D110,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F110" s="4">
@@ -5098,19 +5107,19 @@
       <c r="H110" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="I110" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J110" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K110" s="11">
+      <c r="K110" s="10">
         <v>40817</v>
       </c>
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B111" s="9">
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B111" s="8">
         <v>108</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -5120,7 +5129,7 @@
         <v>15</v>
       </c>
       <c r="E111" s="3">
-        <f>VLOOKUP(D111,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D111,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F111" s="4">
@@ -5132,7 +5141,7 @@
       <c r="H111" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I111" s="12" t="s">
+      <c r="I111" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -5141,10 +5150,10 @@
       <c r="K111" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B112" s="9">
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B112" s="8">
         <v>109</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -5154,7 +5163,7 @@
         <v>31</v>
       </c>
       <c r="E112" s="3">
-        <f>VLOOKUP(D112,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D112,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F112" s="4">
@@ -5166,7 +5175,7 @@
       <c r="H112" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I112" s="12" t="s">
+      <c r="I112" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J112" s="3" t="s">
@@ -5175,10 +5184,10 @@
       <c r="K112" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B113" s="9">
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B113" s="8">
         <v>110</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5188,7 +5197,7 @@
         <v>15</v>
       </c>
       <c r="E113" s="3">
-        <f>VLOOKUP(D113,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D113,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F113" s="4">
@@ -5200,7 +5209,7 @@
       <c r="H113" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I113" s="12" t="s">
+      <c r="I113" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J113" s="3" t="s">
@@ -5209,10 +5218,10 @@
       <c r="K113" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B114" s="9">
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B114" s="8">
         <v>111</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -5222,7 +5231,7 @@
         <v>43</v>
       </c>
       <c r="E114" s="3">
-        <f>VLOOKUP(D114,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D114,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F114" s="4">
@@ -5234,19 +5243,19 @@
       <c r="H114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I114" s="12" t="s">
+      <c r="I114" s="11" t="s">
         <v>157</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K114" s="11">
+      <c r="K114" s="10">
         <v>46935</v>
       </c>
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B115" s="9">
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B115" s="8">
         <v>112</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -5256,7 +5265,7 @@
         <v>43</v>
       </c>
       <c r="E115" s="3">
-        <f>VLOOKUP(D115,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D115,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F115" s="4">
@@ -5268,7 +5277,7 @@
       <c r="H115" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I115" s="12" t="s">
+      <c r="I115" s="11" t="s">
         <v>157</v>
       </c>
       <c r="J115" s="3" t="s">
@@ -5277,10 +5286,10 @@
       <c r="K115" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B116" s="9">
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B116" s="8">
         <v>113</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -5290,7 +5299,7 @@
         <v>159</v>
       </c>
       <c r="E116" s="3">
-        <f>VLOOKUP(D116,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D116,Formato!$A$3:$B$16,2,)</f>
         <v>10</v>
       </c>
       <c r="F116" s="4">
@@ -5302,7 +5311,7 @@
       <c r="H116" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I116" s="12" t="s">
+      <c r="I116" s="11" t="s">
         <v>157</v>
       </c>
       <c r="J116" s="3" t="s">
@@ -5311,10 +5320,10 @@
       <c r="K116" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B117" s="9">
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B117" s="8">
         <v>114</v>
       </c>
       <c r="C117" s="3" t="s">
@@ -5324,7 +5333,7 @@
         <v>160</v>
       </c>
       <c r="E117" s="3">
-        <f>VLOOKUP(D117,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D117,Formato!$A$3:$B$16,2,)</f>
         <v>11</v>
       </c>
       <c r="F117" s="4">
@@ -5336,19 +5345,19 @@
       <c r="H117" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I117" s="12" t="s">
+      <c r="I117" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K117" s="11">
+      <c r="K117" s="10">
         <v>41821</v>
       </c>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B118" s="9">
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B118" s="8">
         <v>115</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -5358,7 +5367,7 @@
         <v>43</v>
       </c>
       <c r="E118" s="3">
-        <f>VLOOKUP(D118,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D118,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F118" s="4">
@@ -5370,7 +5379,7 @@
       <c r="H118" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I118" s="12" t="s">
+      <c r="I118" s="11" t="s">
         <v>162</v>
       </c>
       <c r="J118" s="3" t="s">
@@ -5379,10 +5388,10 @@
       <c r="K118" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B119" s="9">
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B119" s="8">
         <v>116</v>
       </c>
       <c r="C119" s="3" t="s">
@@ -5392,7 +5401,7 @@
         <v>43</v>
       </c>
       <c r="E119" s="3">
-        <f>VLOOKUP(D119,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D119,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F119" s="4">
@@ -5404,7 +5413,7 @@
       <c r="H119" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I119" s="12" t="s">
+      <c r="I119" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J119" s="3" t="s">
@@ -5413,10 +5422,10 @@
       <c r="K119" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B120" s="9">
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B120" s="8">
         <v>117</v>
       </c>
       <c r="C120" s="3" t="s">
@@ -5426,7 +5435,7 @@
         <v>159</v>
       </c>
       <c r="E120" s="3">
-        <f>VLOOKUP(D120,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D120,Formato!$A$3:$B$16,2,)</f>
         <v>10</v>
       </c>
       <c r="F120" s="4">
@@ -5438,19 +5447,19 @@
       <c r="H120" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I120" s="12" t="s">
+      <c r="I120" s="11" t="s">
         <v>165</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K120" s="13">
+      <c r="K120" s="12">
         <v>47274</v>
       </c>
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B121" s="9">
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B121" s="8">
         <v>118</v>
       </c>
       <c r="C121" s="3" t="s">
@@ -5460,7 +5469,7 @@
         <v>43</v>
       </c>
       <c r="E121" s="3">
-        <f>VLOOKUP(D121,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D121,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F121" s="4">
@@ -5472,19 +5481,19 @@
       <c r="H121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I121" s="12" t="s">
+      <c r="I121" s="11" t="s">
         <v>165</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K121" s="11">
+      <c r="K121" s="10">
         <v>46784</v>
       </c>
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B122" s="9">
+      <c r="L121" s="3"/>
+    </row>
+    <row r="122" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B122" s="8">
         <v>119</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -5494,7 +5503,7 @@
         <v>43</v>
       </c>
       <c r="E122" s="3">
-        <f>VLOOKUP(D122,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D122,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F122" s="4">
@@ -5506,19 +5515,19 @@
       <c r="H122" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I122" s="12" t="s">
+      <c r="I122" s="11" t="s">
         <v>165</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K122" s="13">
+      <c r="K122" s="12">
         <v>41580</v>
       </c>
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B123" s="9">
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B123" s="8">
         <v>120</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -5528,7 +5537,7 @@
         <v>43</v>
       </c>
       <c r="E123" s="3">
-        <f>VLOOKUP(D123,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D123,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F123" s="4">
@@ -5540,19 +5549,19 @@
       <c r="H123" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I123" s="12" t="s">
+      <c r="I123" s="11" t="s">
         <v>157</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K123" s="11">
+      <c r="K123" s="10">
         <v>47484</v>
       </c>
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B124" s="9">
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B124" s="8">
         <v>121</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -5562,7 +5571,7 @@
         <v>43</v>
       </c>
       <c r="E124" s="3">
-        <f>VLOOKUP(D124,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D124,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F124" s="4">
@@ -5574,19 +5583,19 @@
       <c r="H124" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I124" s="12" t="s">
+      <c r="I124" s="11" t="s">
         <v>169</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K124" s="11">
+      <c r="K124" s="10">
         <v>40330</v>
       </c>
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B125" s="9">
+      <c r="L124" s="3"/>
+    </row>
+    <row r="125" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B125" s="8">
         <v>122</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -5596,7 +5605,7 @@
         <v>43</v>
       </c>
       <c r="E125" s="3">
-        <f>VLOOKUP(D125,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D125,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F125" s="4">
@@ -5608,19 +5617,19 @@
       <c r="H125" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I125" s="12" t="s">
+      <c r="I125" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K125" s="11">
+      <c r="K125" s="10">
         <v>41883</v>
       </c>
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B126" s="9">
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B126" s="8">
         <v>123</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -5630,7 +5639,7 @@
         <v>43</v>
       </c>
       <c r="E126" s="3">
-        <f>VLOOKUP(D126,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D126,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F126" s="4">
@@ -5642,19 +5651,19 @@
       <c r="H126" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I126" s="12" t="s">
+      <c r="I126" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K126" s="11">
+      <c r="K126" s="10">
         <v>39813</v>
       </c>
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B127" s="9">
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B127" s="8">
         <v>124</v>
       </c>
       <c r="C127" s="3" t="s">
@@ -5664,7 +5673,7 @@
         <v>43</v>
       </c>
       <c r="E127" s="3">
-        <f>VLOOKUP(D127,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D127,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F127" s="4">
@@ -5676,19 +5685,19 @@
       <c r="H127" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I127" s="12" t="s">
+      <c r="I127" s="11" t="s">
         <v>173</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K127" s="11">
+      <c r="K127" s="10">
         <v>45626</v>
       </c>
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B128" s="9">
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B128" s="8">
         <v>125</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -5698,7 +5707,7 @@
         <v>43</v>
       </c>
       <c r="E128" s="3">
-        <f>VLOOKUP(D128,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D128,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F128" s="4">
@@ -5710,19 +5719,19 @@
       <c r="H128" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I128" s="12" t="s">
+      <c r="I128" s="11" t="s">
         <v>173</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K128" s="11">
+      <c r="K128" s="10">
         <v>45524</v>
       </c>
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B129" s="9">
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B129" s="8">
         <v>126</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -5732,7 +5741,7 @@
         <v>43</v>
       </c>
       <c r="E129" s="3">
-        <f>VLOOKUP(D129,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D129,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F129" s="4">
@@ -5744,7 +5753,7 @@
       <c r="H129" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I129" s="12" t="s">
+      <c r="I129" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J129" s="3" t="s">
@@ -5753,10 +5762,10 @@
       <c r="K129" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B130" s="9">
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B130" s="8">
         <v>127</v>
       </c>
       <c r="C130" s="3" t="s">
@@ -5766,7 +5775,7 @@
         <v>15</v>
       </c>
       <c r="E130" s="3">
-        <f>VLOOKUP(D130,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D130,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F130" s="4">
@@ -5778,7 +5787,7 @@
       <c r="H130" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I130" s="12" t="s">
+      <c r="I130" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J130" s="3" t="s">
@@ -5787,10 +5796,10 @@
       <c r="K130" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B131" s="9">
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B131" s="8">
         <v>128</v>
       </c>
       <c r="C131" s="3" t="s">
@@ -5800,7 +5809,7 @@
         <v>43</v>
       </c>
       <c r="E131" s="3">
-        <f>VLOOKUP(D131,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D131,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F131" s="4">
@@ -5812,19 +5821,19 @@
       <c r="H131" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I131" s="12" t="s">
+      <c r="I131" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K131" s="11">
+      <c r="K131" s="10">
         <v>45725</v>
       </c>
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B132" s="9">
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B132" s="8">
         <v>129</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -5834,7 +5843,7 @@
         <v>160</v>
       </c>
       <c r="E132" s="3">
-        <f>VLOOKUP(D132,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D132,Formato!$A$3:$B$16,2,)</f>
         <v>11</v>
       </c>
       <c r="F132" s="4">
@@ -5846,7 +5855,7 @@
       <c r="H132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I132" s="12" t="s">
+      <c r="I132" s="11" t="s">
         <v>178</v>
       </c>
       <c r="J132" s="3" t="s">
@@ -5855,10 +5864,10 @@
       <c r="K132" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B133" s="9">
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B133" s="8">
         <v>130</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -5868,7 +5877,7 @@
         <v>45</v>
       </c>
       <c r="E133" s="3">
-        <f>VLOOKUP(D133,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D133,Formato!$A$3:$B$16,2,)</f>
         <v>8</v>
       </c>
       <c r="F133" s="4">
@@ -5880,7 +5889,7 @@
       <c r="H133" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I133" s="12" t="s">
+      <c r="I133" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J133" s="3" t="s">
@@ -5889,10 +5898,10 @@
       <c r="K133" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B134" s="9">
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B134" s="8">
         <v>131</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -5902,7 +5911,7 @@
         <v>43</v>
       </c>
       <c r="E134" s="3">
-        <f>VLOOKUP(D134,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D134,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F134" s="4">
@@ -5914,19 +5923,19 @@
       <c r="H134" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I134" s="12" t="s">
+      <c r="I134" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K134" s="11">
+      <c r="K134" s="10">
         <v>39813</v>
       </c>
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B135" s="9">
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B135" s="8">
         <v>132</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -5936,7 +5945,7 @@
         <v>43</v>
       </c>
       <c r="E135" s="3">
-        <f>VLOOKUP(D135,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D135,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F135" s="4">
@@ -5948,7 +5957,7 @@
       <c r="H135" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I135" s="12" t="s">
+      <c r="I135" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J135" s="3" t="s">
@@ -5957,10 +5966,10 @@
       <c r="K135" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L135" s="8"/>
-    </row>
-    <row r="136" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B136" s="9">
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B136" s="8">
         <v>133</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -5970,7 +5979,7 @@
         <v>43</v>
       </c>
       <c r="E136" s="3">
-        <f>VLOOKUP(D136,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D136,Formato!$A$3:$B$16,2,)</f>
         <v>7</v>
       </c>
       <c r="F136" s="4">
@@ -5982,19 +5991,19 @@
       <c r="H136" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I136" s="12" t="s">
+      <c r="I136" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K136" s="11">
+      <c r="K136" s="10">
         <v>41214</v>
       </c>
-      <c r="L136" s="8"/>
-    </row>
-    <row r="137" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B137" s="9">
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B137" s="8">
         <v>134</v>
       </c>
       <c r="C137" s="3" t="s">
@@ -6004,7 +6013,7 @@
         <v>183</v>
       </c>
       <c r="E137" s="3">
-        <f>VLOOKUP(D137,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D137,Formato!$A$3:$B$16,2,)</f>
         <v>12</v>
       </c>
       <c r="F137" s="4">
@@ -6016,7 +6025,7 @@
       <c r="H137" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I137" s="12" t="s">
+      <c r="I137" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J137" s="3" t="s">
@@ -6025,10 +6034,10 @@
       <c r="K137" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L137" s="8"/>
-    </row>
-    <row r="138" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B138" s="9">
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B138" s="8">
         <v>135</v>
       </c>
       <c r="C138" s="3" t="s">
@@ -6038,7 +6047,7 @@
         <v>183</v>
       </c>
       <c r="E138" s="3">
-        <f>VLOOKUP(D138,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D138,Formato!$A$3:$B$16,2,)</f>
         <v>12</v>
       </c>
       <c r="F138" s="4">
@@ -6050,7 +6059,7 @@
       <c r="H138" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I138" s="12" t="s">
+      <c r="I138" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J138" s="3" t="s">
@@ -6059,10 +6068,10 @@
       <c r="K138" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L138" s="8"/>
-    </row>
-    <row r="139" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B139" s="9">
+      <c r="L138" s="3"/>
+    </row>
+    <row r="139" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B139" s="8">
         <v>137</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -6072,7 +6081,7 @@
         <v>15</v>
       </c>
       <c r="E139" s="3">
-        <f>VLOOKUP(D139,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D139,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F139" s="4">
@@ -6084,19 +6093,19 @@
       <c r="H139" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I139" s="12" t="s">
+      <c r="I139" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K139" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B140" s="9">
+      <c r="K139" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B140" s="8">
         <v>138</v>
       </c>
       <c r="C140" s="3" t="s">
@@ -6106,7 +6115,7 @@
         <v>34</v>
       </c>
       <c r="E140" s="3">
-        <f>VLOOKUP(D140,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D140,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F140" s="4">
@@ -6118,7 +6127,7 @@
       <c r="H140" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I140" s="12" t="s">
+      <c r="I140" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J140" s="3" t="s">
@@ -6127,10 +6136,10 @@
       <c r="K140" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L140" s="8"/>
-    </row>
-    <row r="141" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B141" s="9">
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B141" s="8">
         <v>139</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -6140,7 +6149,7 @@
         <v>189</v>
       </c>
       <c r="E141" s="3">
-        <f>VLOOKUP(D141,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D141,Formato!$A$3:$B$16,2,)</f>
         <v>13</v>
       </c>
       <c r="F141" s="4">
@@ -6152,7 +6161,7 @@
       <c r="H141" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I141" s="12" t="s">
+      <c r="I141" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J141" s="3" t="s">
@@ -6161,10 +6170,10 @@
       <c r="K141" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L141" s="8"/>
-    </row>
-    <row r="142" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B142" s="9">
+      <c r="L141" s="3"/>
+    </row>
+    <row r="142" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B142" s="8">
         <v>140</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -6174,7 +6183,7 @@
         <v>15</v>
       </c>
       <c r="E142" s="3">
-        <f>VLOOKUP(D142,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D142,Formato!$A$3:$B$16,2,)</f>
         <v>6</v>
       </c>
       <c r="F142" s="4">
@@ -6186,7 +6195,7 @@
       <c r="H142" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I142" s="12" t="s">
+      <c r="I142" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J142" s="3" t="s">
@@ -6195,10 +6204,10 @@
       <c r="K142" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L142" s="8"/>
-    </row>
-    <row r="143" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B143" s="9">
+      <c r="L142" s="3"/>
+    </row>
+    <row r="143" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B143" s="8">
         <v>141</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -6208,7 +6217,7 @@
         <v>192</v>
       </c>
       <c r="E143" s="3">
-        <f>VLOOKUP(D143,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D143,Formato!$A$3:$B$16,2,)</f>
         <v>14</v>
       </c>
       <c r="F143" s="4">
@@ -6220,7 +6229,7 @@
       <c r="H143" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I143" s="12" t="s">
+      <c r="I143" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J143" s="3" t="s">
@@ -6229,10 +6238,10 @@
       <c r="K143" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B144" s="9">
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B144" s="8">
         <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
@@ -6242,7 +6251,7 @@
         <v>11</v>
       </c>
       <c r="E144" s="3">
-        <f>VLOOKUP(D144,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D144,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F144" s="4">
@@ -6254,7 +6263,7 @@
       <c r="H144" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I144" s="12" t="s">
+      <c r="I144" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J144" s="3" t="s">
@@ -6263,10 +6272,10 @@
       <c r="K144" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B145" s="9">
+      <c r="L144" s="3"/>
+    </row>
+    <row r="145" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B145" s="8">
         <v>143</v>
       </c>
       <c r="C145" s="3" t="s">
@@ -6276,7 +6285,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="3">
-        <f>VLOOKUP(D145,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D145,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F145" s="4">
@@ -6288,7 +6297,7 @@
       <c r="H145" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I145" s="12" t="s">
+      <c r="I145" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J145" s="3" t="s">
@@ -6297,10 +6306,10 @@
       <c r="K145" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L145" s="8"/>
-    </row>
-    <row r="146" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B146" s="9">
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B146" s="8">
         <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
@@ -6310,7 +6319,7 @@
         <v>31</v>
       </c>
       <c r="E146" s="3">
-        <f>VLOOKUP(D146,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D146,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F146" s="4">
@@ -6322,7 +6331,7 @@
       <c r="H146" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I146" s="12" t="s">
+      <c r="I146" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J146" s="3" t="s">
@@ -6331,10 +6340,10 @@
       <c r="K146" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L146" s="8"/>
-    </row>
-    <row r="147" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B147" s="9">
+      <c r="L146" s="3"/>
+    </row>
+    <row r="147" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B147" s="8">
         <v>145</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -6344,7 +6353,7 @@
         <v>31</v>
       </c>
       <c r="E147" s="3">
-        <f>VLOOKUP(D147,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D147,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F147" s="4">
@@ -6356,19 +6365,19 @@
       <c r="H147" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I147" s="12" t="s">
+      <c r="I147" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J147" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K147" s="11">
+      <c r="K147" s="10">
         <v>40940</v>
       </c>
-      <c r="L147" s="8"/>
-    </row>
-    <row r="148" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B148" s="9">
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B148" s="8">
         <v>146</v>
       </c>
       <c r="C148" s="3" t="s">
@@ -6378,7 +6387,7 @@
         <v>31</v>
       </c>
       <c r="E148" s="3">
-        <f>VLOOKUP(D148,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D148,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F148" s="4">
@@ -6399,10 +6408,10 @@
       <c r="K148" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B149" s="9">
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B149" s="8">
         <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
@@ -6412,7 +6421,7 @@
         <v>34</v>
       </c>
       <c r="E149" s="3">
-        <f>VLOOKUP(D149,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D149,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F149" s="4">
@@ -6433,10 +6442,10 @@
       <c r="K149" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B150" s="9">
+      <c r="L149" s="3"/>
+    </row>
+    <row r="150" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B150" s="8">
         <v>148</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -6446,7 +6455,7 @@
         <v>34</v>
       </c>
       <c r="E150" s="3">
-        <f>VLOOKUP(D150,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D150,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F150" s="4">
@@ -6467,10 +6476,10 @@
       <c r="K150" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L150" s="8"/>
-    </row>
-    <row r="151" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B151" s="9">
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B151" s="8">
         <v>149</v>
       </c>
       <c r="C151" s="3" t="s">
@@ -6480,7 +6489,7 @@
         <v>34</v>
       </c>
       <c r="E151" s="3">
-        <f>VLOOKUP(D151,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D151,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F151" s="4">
@@ -6501,10 +6510,10 @@
       <c r="K151" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B152" s="9">
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B152" s="8">
         <v>150</v>
       </c>
       <c r="C152" s="3" t="s">
@@ -6514,7 +6523,7 @@
         <v>11</v>
       </c>
       <c r="E152" s="3">
-        <f>VLOOKUP(D152,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D152,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F152" s="4">
@@ -6532,13 +6541,13 @@
       <c r="J152" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K152" s="13">
+      <c r="K152" s="12">
         <v>39141</v>
       </c>
-      <c r="L152" s="8"/>
-    </row>
-    <row r="153" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B153" s="9">
+      <c r="L152" s="3"/>
+    </row>
+    <row r="153" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B153" s="8">
         <v>151</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -6548,7 +6557,7 @@
         <v>34</v>
       </c>
       <c r="E153" s="3">
-        <f>VLOOKUP(D153,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D153,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F153" s="4">
@@ -6569,10 +6578,10 @@
       <c r="K153" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L153" s="8"/>
-    </row>
-    <row r="154" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B154" s="9">
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B154" s="8">
         <v>152</v>
       </c>
       <c r="C154" s="3" t="s">
@@ -6582,7 +6591,7 @@
         <v>34</v>
       </c>
       <c r="E154" s="3">
-        <f>VLOOKUP(D154,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D154,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F154" s="4">
@@ -6603,10 +6612,10 @@
       <c r="K154" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L154" s="8"/>
-    </row>
-    <row r="155" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B155" s="9">
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B155" s="8">
         <v>153</v>
       </c>
       <c r="C155" s="3" t="s">
@@ -6616,7 +6625,7 @@
         <v>34</v>
       </c>
       <c r="E155" s="3">
-        <f>VLOOKUP(D155,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D155,Formato!$A$3:$B$16,2,)</f>
         <v>4</v>
       </c>
       <c r="F155" s="4">
@@ -6637,10 +6646,10 @@
       <c r="K155" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B156" s="9">
+      <c r="L155" s="3"/>
+    </row>
+    <row r="156" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B156" s="8">
         <v>154</v>
       </c>
       <c r="C156" s="3" t="s">
@@ -6650,7 +6659,7 @@
         <v>31</v>
       </c>
       <c r="E156" s="3">
-        <f>VLOOKUP(D156,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D156,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F156" s="4">
@@ -6668,13 +6677,13 @@
       <c r="J156" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K156" s="11">
+      <c r="K156" s="10">
         <v>40848</v>
       </c>
-      <c r="L156" s="8"/>
-    </row>
-    <row r="157" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B157" s="9">
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B157" s="8">
         <v>155</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -6684,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="3">
-        <f>VLOOKUP(D157,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D157,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F157" s="4">
@@ -6705,10 +6714,10 @@
       <c r="K157" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L157" s="8"/>
-    </row>
-    <row r="158" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B158" s="9">
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B158" s="8">
         <v>156</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -6718,7 +6727,7 @@
         <v>11</v>
       </c>
       <c r="E158" s="3">
-        <f>VLOOKUP(D158,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D158,Formato!$A$3:$B$16,2,)</f>
         <v>1</v>
       </c>
       <c r="F158" s="4">
@@ -6739,10 +6748,10 @@
       <c r="K158" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L158" s="8"/>
-    </row>
-    <row r="159" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B159" s="9">
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="2:12" ht="13.8" thickBot="1">
+      <c r="B159" s="8">
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
@@ -6752,7 +6761,7 @@
         <v>31</v>
       </c>
       <c r="E159" s="3">
-        <f>VLOOKUP(D159,Hoja1!$A$3:$B$16,2,)</f>
+        <f>VLOOKUP(D159,Formato!$A$3:$B$16,2,)</f>
         <v>3</v>
       </c>
       <c r="F159" s="4">
@@ -6773,7 +6782,7 @@
       <c r="K159" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L159" s="8"/>
+      <c r="L159" s="3"/>
     </row>
     <row r="160" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="E160" s="3"/>
@@ -6789,32 +6798,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:2" ht="15.6">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A3" s="48" t="s">
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.5" thickBot="1">
+    <row r="4" spans="1:2" ht="13.8" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -6822,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" thickBot="1">
+    <row r="5" spans="1:2" ht="13.8" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -6830,7 +6843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.5" thickBot="1">
+    <row r="6" spans="1:2" ht="13.8" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -6838,7 +6851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.5" thickBot="1">
+    <row r="7" spans="1:2" ht="13.8" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -6846,7 +6859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.5" thickBot="1">
+    <row r="8" spans="1:2" ht="13.8" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -6854,7 +6867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.5" thickBot="1">
+    <row r="9" spans="1:2" ht="13.8" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -6862,7 +6875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.5" thickBot="1">
+    <row r="10" spans="1:2" ht="13.8" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -6870,7 +6883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.5" thickBot="1">
+    <row r="11" spans="1:2" ht="13.8" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -6878,7 +6891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.5" thickBot="1">
+    <row r="12" spans="1:2" ht="13.8" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
@@ -6886,7 +6899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.5" thickBot="1">
+    <row r="13" spans="1:2" ht="13.8" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.5" thickBot="1">
+    <row r="14" spans="1:2" ht="13.8" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>183</v>
       </c>
@@ -6902,7 +6915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.5" thickBot="1">
+    <row r="15" spans="1:2" ht="13.8" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -6910,7 +6923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.5" thickBot="1">
+    <row r="16" spans="1:2" ht="13.8" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>192</v>
       </c>
@@ -6924,401 +6937,401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="30">
         <v>2</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="35"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="28">
+      <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="30">
         <v>2</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="35"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="28">
+      <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="33">
-        <v>1</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="35"/>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="33">
-        <v>1</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="35"/>
+      <c r="H7" s="30">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <v>7</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="35"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>8</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="35"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>9</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="28">
+      <c r="B12" s="25">
         <v>10</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <v>11</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="34">
-        <v>1</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="40">
+      <c r="G13" s="33"/>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="35">
         <v>534031</v>
       </c>
-      <c r="K13" s="34"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="28">
-        <v>12</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="25">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="34">
-        <v>1</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="40">
+      <c r="G14" s="33"/>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="35">
         <v>531030</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>13</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34">
-        <v>1</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="40">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="35">
         <v>539010</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="28">
+      <c r="B16" s="25">
         <v>14</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34">
-        <v>1</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="40">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35">
         <v>539007</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="23" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E23" s="42"/>
+      <c r="E23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7330,224 +7343,224 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" customHeight="1">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" customHeight="1">
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>2</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>10</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>4</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="26" t="s">
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7555,4 +7568,124 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480424D3-EDB6-4AAD-A08E-C07370F782DC}">
+  <dimension ref="B1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reactivos.xlsx
+++ b/Reactivos.xlsx
@@ -1,33 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\Desktop\queChimbaSos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\OneDrive\Escritorio\queChimbaSos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A332C0-8738-4464-BC0A-86142F3BEE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47917552-8599-4AA6-90F8-44CA83E9B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de reactivos del almacé" sheetId="1" r:id="rId1"/>
-    <sheet name="Formato" sheetId="4" r:id="rId2"/>
-    <sheet name="Listado de materiales del almac" sheetId="2" r:id="rId3"/>
-    <sheet name="Listado de productos auxiliares" sheetId="3" r:id="rId4"/>
-    <sheet name="Inventario_reactivos" sheetId="5" r:id="rId5"/>
+    <sheet name="Ubicaciones" sheetId="6" r:id="rId2"/>
+    <sheet name="Formato" sheetId="4" r:id="rId3"/>
+    <sheet name="Listado de materiales del almac" sheetId="2" r:id="rId4"/>
+    <sheet name="Listado de productos auxiliares" sheetId="3" r:id="rId5"/>
+    <sheet name="Inventario_reactivos" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Formato!$A$1:$A$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Formato!$A$1:$A$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="268">
   <si>
     <t>Reactivos</t>
   </si>
@@ -825,6 +859,12 @@
   </si>
   <si>
     <t>ID - Almacen</t>
+  </si>
+  <si>
+    <t>Codigo Ubicación</t>
+  </si>
+  <si>
+    <t>Codigo ubicación</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,29 +1454,30 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M160"/>
+  <dimension ref="B1:N160"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D136" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="52" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.109375" customWidth="1"/>
-    <col min="12" max="12" width="31.109375" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
@@ -1446,9 +1490,10 @@
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M2" s="40"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1468,19 +1513,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="14.4" thickBot="1">
+    <row r="4" spans="2:14" ht="15" thickBot="1">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1503,18 +1551,22 @@
       <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" cm="1">
+        <f t="array" ref="I4:I159">VLOOKUP(H4:H159,Ubicaciones!$A$3:$B$15,2,)</f>
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1537,18 +1589,21 @@
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1571,18 +1626,21 @@
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1605,18 +1663,21 @@
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1639,18 +1700,21 @@
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1673,18 +1737,21 @@
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1707,18 +1774,21 @@
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1741,18 +1811,21 @@
       <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4" thickBot="1">
+      <c r="L11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1775,18 +1848,21 @@
       <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" ht="13.8" thickBot="1">
+      <c r="L12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.5" thickBot="1">
       <c r="B13" s="8">
         <v>10</v>
       </c>
@@ -1809,18 +1885,21 @@
       <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:13" ht="13.8" thickBot="1">
+      <c r="L13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="13.5" thickBot="1">
       <c r="B14" s="8">
         <v>11</v>
       </c>
@@ -1843,18 +1922,21 @@
       <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:13" ht="13.8" thickBot="1">
+      <c r="L14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" ht="13.5" thickBot="1">
       <c r="B15" s="8">
         <v>12</v>
       </c>
@@ -1877,18 +1959,21 @@
       <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" ht="13.8" thickBot="1">
+      <c r="L15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" ht="13.5" thickBot="1">
       <c r="B16" s="8">
         <v>13</v>
       </c>
@@ -1911,18 +1996,21 @@
       <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.5" thickBot="1">
       <c r="B17" s="8">
         <v>14</v>
       </c>
@@ -1945,18 +2033,21 @@
       <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.5" thickBot="1">
       <c r="B18" s="8">
         <v>15</v>
       </c>
@@ -1979,18 +2070,21 @@
       <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.5" thickBot="1">
       <c r="B19" s="8">
         <v>16</v>
       </c>
@@ -2013,18 +2107,21 @@
       <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.5" thickBot="1">
       <c r="B20" s="8">
         <v>17</v>
       </c>
@@ -2047,18 +2144,21 @@
       <c r="H20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.5" thickBot="1">
       <c r="B21" s="8">
         <v>18</v>
       </c>
@@ -2081,18 +2181,21 @@
       <c r="H21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:13" ht="13.5" thickBot="1">
       <c r="B22" s="8">
         <v>19</v>
       </c>
@@ -2115,18 +2218,21 @@
       <c r="H22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="10">
+      <c r="L22" s="10">
         <v>41214</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="2:13" ht="13.5" thickBot="1">
       <c r="B23" s="8">
         <v>20</v>
       </c>
@@ -2149,18 +2255,21 @@
       <c r="H23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="10">
         <v>42552</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:13" ht="13.5" thickBot="1">
       <c r="B24" s="8">
         <v>21</v>
       </c>
@@ -2183,18 +2292,21 @@
       <c r="H24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:13" ht="13.5" thickBot="1">
       <c r="B25" s="8">
         <v>22</v>
       </c>
@@ -2217,18 +2329,21 @@
       <c r="H25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="10">
         <v>42430</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="2:13" ht="13.5" thickBot="1">
       <c r="B26" s="8">
         <v>23</v>
       </c>
@@ -2251,18 +2366,21 @@
       <c r="H26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="10">
         <v>40422</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.5" thickBot="1">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -2285,18 +2403,21 @@
       <c r="H27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.5" thickBot="1">
       <c r="B28" s="8">
         <v>25</v>
       </c>
@@ -2319,18 +2440,21 @@
       <c r="H28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.5" thickBot="1">
       <c r="B29" s="8">
         <v>26</v>
       </c>
@@ -2353,18 +2477,21 @@
       <c r="H29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="5">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.5" thickBot="1">
       <c r="B30" s="8">
         <v>27</v>
       </c>
@@ -2387,18 +2514,21 @@
       <c r="H30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="5">
+        <v>4</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.5" thickBot="1">
       <c r="B31" s="8">
         <v>28</v>
       </c>
@@ -2421,18 +2551,21 @@
       <c r="H31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="5">
+        <v>4</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.5" thickBot="1">
       <c r="B32" s="8">
         <v>29</v>
       </c>
@@ -2455,18 +2588,21 @@
       <c r="H32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="5">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.5" thickBot="1">
       <c r="B33" s="8">
         <v>30</v>
       </c>
@@ -2489,18 +2625,21 @@
       <c r="H33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="5">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" ht="13.5" thickBot="1">
       <c r="B34" s="8">
         <v>31</v>
       </c>
@@ -2523,18 +2662,21 @@
       <c r="H34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="5">
+        <v>4</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" ht="13.5" thickBot="1">
       <c r="B35" s="8">
         <v>32</v>
       </c>
@@ -2557,18 +2699,21 @@
       <c r="H35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="2:13" ht="13.5" thickBot="1">
       <c r="B36" s="8">
         <v>33</v>
       </c>
@@ -2591,18 +2736,21 @@
       <c r="H36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="5">
+        <v>4</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="10">
         <v>42278</v>
       </c>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="2:13" ht="13.5" thickBot="1">
       <c r="B37" s="8">
         <v>34</v>
       </c>
@@ -2625,18 +2773,21 @@
       <c r="H37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="5">
+        <v>4</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.5" thickBot="1">
       <c r="B38" s="8">
         <v>35</v>
       </c>
@@ -2659,18 +2810,21 @@
       <c r="H38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="5">
+        <v>4</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="10">
         <v>42036</v>
       </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="2:13" ht="13.5" thickBot="1">
       <c r="B39" s="8">
         <v>36</v>
       </c>
@@ -2693,18 +2847,21 @@
       <c r="H39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" ht="13.5" thickBot="1">
       <c r="B40" s="8">
         <v>37</v>
       </c>
@@ -2727,18 +2884,21 @@
       <c r="H40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="5">
+        <v>4</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" ht="13.5" thickBot="1">
       <c r="B41" s="8">
         <v>38</v>
       </c>
@@ -2761,18 +2921,21 @@
       <c r="H41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="5">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.5" thickBot="1">
       <c r="B42" s="8">
         <v>39</v>
       </c>
@@ -2795,18 +2958,21 @@
       <c r="H42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="5">
+        <v>4</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" ht="13.5" thickBot="1">
       <c r="B43" s="8">
         <v>40</v>
       </c>
@@ -2829,18 +2995,21 @@
       <c r="H43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="5">
+        <v>4</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" ht="13.5" thickBot="1">
       <c r="B44" s="8">
         <v>41</v>
       </c>
@@ -2863,18 +3032,21 @@
       <c r="H44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="5">
+        <v>4</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" ht="13.5" thickBot="1">
       <c r="B45" s="8">
         <v>42</v>
       </c>
@@ -2897,18 +3069,21 @@
       <c r="H45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="5">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="10">
+      <c r="L45" s="10">
         <v>43678</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" ht="13.5" thickBot="1">
       <c r="B46" s="8">
         <v>43</v>
       </c>
@@ -2931,18 +3106,21 @@
       <c r="H46" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="5">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" ht="13.5" thickBot="1">
       <c r="B47" s="8">
         <v>44</v>
       </c>
@@ -2965,18 +3143,21 @@
       <c r="H47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="5">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" ht="13.5" thickBot="1">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -2999,18 +3180,21 @@
       <c r="H48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="5">
+        <v>4</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="2:13" ht="13.5" thickBot="1">
       <c r="B49" s="8">
         <v>46</v>
       </c>
@@ -3033,18 +3217,21 @@
       <c r="H49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="5">
+        <v>4</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="2:13" ht="13.5" thickBot="1">
       <c r="B50" s="8">
         <v>47</v>
       </c>
@@ -3067,18 +3254,21 @@
       <c r="H50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="5">
+        <v>4</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="2:13" ht="13.5" thickBot="1">
       <c r="B51" s="8">
         <v>48</v>
       </c>
@@ -3101,18 +3291,21 @@
       <c r="H51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="5">
+        <v>3</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="2:13" ht="13.5" thickBot="1">
       <c r="B52" s="8">
         <v>49</v>
       </c>
@@ -3135,18 +3328,21 @@
       <c r="H52" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="5">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="2:13" ht="13.5" thickBot="1">
       <c r="B53" s="8">
         <v>50</v>
       </c>
@@ -3169,18 +3365,21 @@
       <c r="H53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="5">
+        <v>3</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="2:13" ht="13.5" thickBot="1">
       <c r="B54" s="8">
         <v>51</v>
       </c>
@@ -3203,18 +3402,21 @@
       <c r="H54" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="5">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="2:13" ht="13.5" thickBot="1">
       <c r="B55" s="8">
         <v>52</v>
       </c>
@@ -3237,18 +3439,21 @@
       <c r="H55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="5">
+        <v>3</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="2:13" ht="13.5" thickBot="1">
       <c r="B56" s="8">
         <v>53</v>
       </c>
@@ -3271,18 +3476,21 @@
       <c r="H56" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="5">
+        <v>3</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="10">
+      <c r="L56" s="10">
         <v>40725</v>
       </c>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="2:13" ht="13.5" thickBot="1">
       <c r="B57" s="8">
         <v>54</v>
       </c>
@@ -3305,18 +3513,21 @@
       <c r="H57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="5">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="2:13" ht="13.5" thickBot="1">
       <c r="B58" s="8">
         <v>55</v>
       </c>
@@ -3339,18 +3550,21 @@
       <c r="H58" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="5">
+        <v>3</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" ht="13.5" thickBot="1">
       <c r="B59" s="8">
         <v>56</v>
       </c>
@@ -3373,18 +3587,21 @@
       <c r="H59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="5">
+        <v>3</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="2:13" ht="13.5" thickBot="1">
       <c r="B60" s="8">
         <v>57</v>
       </c>
@@ -3407,18 +3624,21 @@
       <c r="H60" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="5">
+        <v>3</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="2:13" ht="13.5" thickBot="1">
       <c r="B61" s="8">
         <v>58</v>
       </c>
@@ -3441,18 +3661,21 @@
       <c r="H61" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="5">
+        <v>3</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="2:13" ht="13.5" thickBot="1">
       <c r="B62" s="8">
         <v>59</v>
       </c>
@@ -3475,18 +3698,21 @@
       <c r="H62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="5">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="2:13" ht="13.5" thickBot="1">
       <c r="B63" s="8">
         <v>60</v>
       </c>
@@ -3509,18 +3735,21 @@
       <c r="H63" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="5">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="2:13" ht="13.5" thickBot="1">
       <c r="B64" s="8">
         <v>61</v>
       </c>
@@ -3543,18 +3772,21 @@
       <c r="H64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="5">
+        <v>3</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" ht="13.5" thickBot="1">
       <c r="B65" s="8">
         <v>62</v>
       </c>
@@ -3577,18 +3809,21 @@
       <c r="H65" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="5">
+        <v>3</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" ht="13.5" thickBot="1">
       <c r="B66" s="8">
         <v>63</v>
       </c>
@@ -3611,18 +3846,21 @@
       <c r="H66" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="5">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" ht="13.5" thickBot="1">
       <c r="B67" s="8">
         <v>64</v>
       </c>
@@ -3645,18 +3883,21 @@
       <c r="H67" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="5">
+        <v>3</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" ht="13.5" thickBot="1">
       <c r="B68" s="8">
         <v>65</v>
       </c>
@@ -3679,18 +3920,21 @@
       <c r="H68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="5">
+        <v>3</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="L68" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" ht="13.5" thickBot="1">
       <c r="B69" s="8">
         <v>66</v>
       </c>
@@ -3713,18 +3957,21 @@
       <c r="H69" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="5">
+        <v>3</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="12">
+      <c r="L69" s="12">
         <v>42155</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" ht="13.5" thickBot="1">
       <c r="B70" s="8">
         <v>67</v>
       </c>
@@ -3747,18 +3994,21 @@
       <c r="H70" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="5">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="10">
+      <c r="L70" s="10">
         <v>46905</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" ht="13.5" thickBot="1">
       <c r="B71" s="8">
         <v>68</v>
       </c>
@@ -3781,18 +4031,21 @@
       <c r="H71" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="5">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" ht="13.5" thickBot="1">
       <c r="B72" s="8">
         <v>69</v>
       </c>
@@ -3815,18 +4068,21 @@
       <c r="H72" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="5">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" ht="13.5" thickBot="1">
       <c r="B73" s="8">
         <v>70</v>
       </c>
@@ -3849,18 +4105,21 @@
       <c r="H73" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="5">
+        <v>3</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="K73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" ht="13.5" thickBot="1">
       <c r="B74" s="8">
         <v>71</v>
       </c>
@@ -3883,18 +4142,21 @@
       <c r="H74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="5">
+        <v>3</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K74" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" ht="13.5" thickBot="1">
       <c r="B75" s="8">
         <v>72</v>
       </c>
@@ -3917,18 +4179,21 @@
       <c r="H75" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="5">
+        <v>3</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" ht="13.5" thickBot="1">
       <c r="B76" s="8">
         <v>73</v>
       </c>
@@ -3951,18 +4216,21 @@
       <c r="H76" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="5">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" ht="13.5" thickBot="1">
       <c r="B77" s="8">
         <v>74</v>
       </c>
@@ -3985,18 +4253,21 @@
       <c r="H77" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="5">
+        <v>3</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K77" s="10">
+      <c r="L77" s="10">
         <v>42064</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="2:13" ht="13.5" thickBot="1">
       <c r="B78" s="8">
         <v>75</v>
       </c>
@@ -4019,18 +4290,21 @@
       <c r="H78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="5">
+        <v>3</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="K78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="10">
+      <c r="L78" s="10">
         <v>41183</v>
       </c>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="2:13" ht="13.5" thickBot="1">
       <c r="B79" s="8">
         <v>76</v>
       </c>
@@ -4053,18 +4327,21 @@
       <c r="H79" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="5">
+        <v>3</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K79" s="13">
+      <c r="L79" s="13">
         <v>40087</v>
       </c>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="2:13" ht="13.5" thickBot="1">
       <c r="B80" s="8">
         <v>77</v>
       </c>
@@ -4087,18 +4364,21 @@
       <c r="H80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="5">
+        <v>3</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K80" s="13">
+      <c r="L80" s="13">
         <v>39934</v>
       </c>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="2:13" ht="13.5" thickBot="1">
       <c r="B81" s="8">
         <v>78</v>
       </c>
@@ -4121,18 +4401,21 @@
       <c r="H81" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="5">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="2:13" ht="13.5" thickBot="1">
       <c r="B82" s="8">
         <v>79</v>
       </c>
@@ -4155,18 +4438,21 @@
       <c r="H82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="I82" s="5">
+        <v>3</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="2:13" ht="13.5" thickBot="1">
       <c r="B83" s="8">
         <v>80</v>
       </c>
@@ -4189,18 +4475,21 @@
       <c r="H83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="I83" s="5">
+        <v>2</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="2:13" ht="13.5" thickBot="1">
       <c r="B84" s="8">
         <v>81</v>
       </c>
@@ -4223,18 +4512,21 @@
       <c r="H84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I84" s="5">
+        <v>2</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="K84" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K84" s="10">
+      <c r="L84" s="10">
         <v>42614</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="2:13" ht="13.5" thickBot="1">
       <c r="B85" s="8">
         <v>82</v>
       </c>
@@ -4257,18 +4549,21 @@
       <c r="H85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="I85" s="5">
+        <v>2</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L85" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="2:13" ht="13.5" thickBot="1">
       <c r="B86" s="8">
         <v>83</v>
       </c>
@@ -4291,18 +4586,21 @@
       <c r="H86" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="I86" s="5">
+        <v>2</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L86" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="2:13" ht="13.5" thickBot="1">
       <c r="B87" s="8">
         <v>84</v>
       </c>
@@ -4325,18 +4623,21 @@
       <c r="H87" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="I87" s="5">
+        <v>2</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="K87" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L87" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="2:13" ht="13.5" thickBot="1">
       <c r="B88" s="8">
         <v>85</v>
       </c>
@@ -4359,18 +4660,21 @@
       <c r="H88" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I88" s="5">
+        <v>2</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K88" s="12">
+      <c r="L88" s="12">
         <v>39294</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="2:13" ht="13.5" thickBot="1">
       <c r="B89" s="8">
         <v>86</v>
       </c>
@@ -4393,18 +4697,21 @@
       <c r="H89" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="5">
+        <v>2</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="2:13" ht="13.5" thickBot="1">
       <c r="B90" s="8">
         <v>87</v>
       </c>
@@ -4427,18 +4734,21 @@
       <c r="H90" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="5">
+        <v>2</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="K90" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K90" s="10">
+      <c r="L90" s="10">
         <v>47150</v>
       </c>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="2:13" ht="13.5" thickBot="1">
       <c r="B91" s="8">
         <v>88</v>
       </c>
@@ -4461,18 +4771,21 @@
       <c r="H91" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="5">
+        <v>2</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K91" s="10">
+      <c r="L91" s="10">
         <v>40330</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="2:13" ht="13.5" thickBot="1">
       <c r="B92" s="8">
         <v>89</v>
       </c>
@@ -4495,18 +4808,21 @@
       <c r="H92" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="5">
+        <v>2</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="K92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K92" s="12">
+      <c r="L92" s="12">
         <v>38301</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="2:13" ht="13.5" thickBot="1">
       <c r="B93" s="8">
         <v>90</v>
       </c>
@@ -4529,18 +4845,21 @@
       <c r="H93" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="5">
+        <v>2</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="2:13" ht="13.5" thickBot="1">
       <c r="B94" s="8">
         <v>91</v>
       </c>
@@ -4563,18 +4882,21 @@
       <c r="H94" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="I94" s="5">
+        <v>2</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="2:13" ht="13.5" thickBot="1">
       <c r="B95" s="8">
         <v>92</v>
       </c>
@@ -4597,18 +4919,21 @@
       <c r="H95" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="5">
+        <v>2</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="K95" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K95" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="2:13" ht="13.5" thickBot="1">
       <c r="B96" s="8">
         <v>93</v>
       </c>
@@ -4631,18 +4956,21 @@
       <c r="H96" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="5">
+        <v>2</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="10">
+      <c r="L96" s="10">
         <v>41548</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="2:13" ht="13.5" thickBot="1">
       <c r="B97" s="8">
         <v>94</v>
       </c>
@@ -4665,18 +4993,21 @@
       <c r="H97" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="5">
+        <v>2</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="K97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K97" s="10">
+      <c r="L97" s="10">
         <v>43009</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="2:13" ht="13.5" thickBot="1">
       <c r="B98" s="8">
         <v>95</v>
       </c>
@@ -4699,18 +5030,21 @@
       <c r="H98" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I98" s="5">
+        <v>2</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="K98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L98" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="2:13" ht="13.5" thickBot="1">
       <c r="B99" s="8">
         <v>96</v>
       </c>
@@ -4733,18 +5067,21 @@
       <c r="H99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="I99" s="5">
+        <v>2</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K99" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L99" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="2:13" ht="13.5" thickBot="1">
       <c r="B100" s="8">
         <v>97</v>
       </c>
@@ -4767,18 +5104,21 @@
       <c r="H100" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="5">
+        <v>2</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K100" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L100" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="2:13" ht="13.5" thickBot="1">
       <c r="B101" s="8">
         <v>98</v>
       </c>
@@ -4801,18 +5141,21 @@
       <c r="H101" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="I101" s="5">
+        <v>2</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="10">
+      <c r="L101" s="10">
         <v>45658</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="2:13" ht="13.5" thickBot="1">
       <c r="B102" s="8">
         <v>99</v>
       </c>
@@ -4835,18 +5178,21 @@
       <c r="H102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I102" s="11" t="s">
+      <c r="I102" s="5">
+        <v>2</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="K102" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K102" s="10">
+      <c r="L102" s="10">
         <v>40878</v>
       </c>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="2:13" ht="13.5" thickBot="1">
       <c r="B103" s="8">
         <v>100</v>
       </c>
@@ -4869,18 +5215,21 @@
       <c r="H103" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="5">
+        <v>2</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K103" s="10">
+      <c r="L103" s="10">
         <v>40422</v>
       </c>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="2:13" ht="13.5" thickBot="1">
       <c r="B104" s="8">
         <v>101</v>
       </c>
@@ -4903,18 +5252,21 @@
       <c r="H104" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K104" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L104" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="2:13" ht="13.5" thickBot="1">
       <c r="B105" s="8">
         <v>102</v>
       </c>
@@ -4937,18 +5289,21 @@
       <c r="H105" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="I105" s="5">
+        <v>2</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K105" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="2:13" ht="13.5" thickBot="1">
       <c r="B106" s="8">
         <v>103</v>
       </c>
@@ -4971,18 +5326,21 @@
       <c r="H106" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="I106" s="5">
+        <v>2</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="K106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K106" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L106" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="2:13" ht="13.5" thickBot="1">
       <c r="B107" s="8">
         <v>104</v>
       </c>
@@ -5005,18 +5363,21 @@
       <c r="H107" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="I107" s="5">
+        <v>2</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K107" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" spans="2:13" ht="13.5" thickBot="1">
       <c r="B108" s="8">
         <v>105</v>
       </c>
@@ -5039,18 +5400,21 @@
       <c r="H108" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I108" s="5">
+        <v>2</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K108" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="2:13" ht="13.5" thickBot="1">
       <c r="B109" s="8">
         <v>106</v>
       </c>
@@ -5073,18 +5437,21 @@
       <c r="H109" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I109" s="5">
+        <v>2</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K109" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L109" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="2:13" ht="13.5" thickBot="1">
       <c r="B110" s="8">
         <v>107</v>
       </c>
@@ -5107,18 +5474,21 @@
       <c r="H110" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I110" s="11" t="s">
+      <c r="I110" s="5">
+        <v>2</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K110" s="10">
+      <c r="L110" s="10">
         <v>40817</v>
       </c>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="2:13" ht="13.5" thickBot="1">
       <c r="B111" s="8">
         <v>108</v>
       </c>
@@ -5141,18 +5511,21 @@
       <c r="H111" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I111" s="5">
+        <v>2</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="K111" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L111" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="2:13" ht="13.5" thickBot="1">
       <c r="B112" s="8">
         <v>109</v>
       </c>
@@ -5175,18 +5548,21 @@
       <c r="H112" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I112" s="11" t="s">
+      <c r="I112" s="5">
+        <v>2</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="K112" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K112" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L112" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="2:13" ht="13.5" thickBot="1">
       <c r="B113" s="8">
         <v>110</v>
       </c>
@@ -5209,18 +5585,21 @@
       <c r="H113" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="5">
+        <v>2</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="K113" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K113" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M113" s="3"/>
+    </row>
+    <row r="114" spans="2:13" ht="13.5" thickBot="1">
       <c r="B114" s="8">
         <v>111</v>
       </c>
@@ -5243,18 +5622,21 @@
       <c r="H114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I114" s="5">
+        <v>1</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="K114" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K114" s="10">
+      <c r="L114" s="10">
         <v>46935</v>
       </c>
-      <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="2:13" ht="13.5" thickBot="1">
       <c r="B115" s="8">
         <v>112</v>
       </c>
@@ -5277,18 +5659,21 @@
       <c r="H115" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="5">
+        <v>1</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K115" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115" s="3"/>
+    </row>
+    <row r="116" spans="2:13" ht="13.5" thickBot="1">
       <c r="B116" s="8">
         <v>113</v>
       </c>
@@ -5311,18 +5696,21 @@
       <c r="H116" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I116" s="11" t="s">
+      <c r="I116" s="5">
+        <v>1</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="K116" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K116" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L116" s="3"/>
-    </row>
-    <row r="117" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M116" s="3"/>
+    </row>
+    <row r="117" spans="2:13" ht="13.5" thickBot="1">
       <c r="B117" s="8">
         <v>114</v>
       </c>
@@ -5345,18 +5733,21 @@
       <c r="H117" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I117" s="11" t="s">
+      <c r="I117" s="5">
+        <v>1</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="K117" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K117" s="10">
+      <c r="L117" s="10">
         <v>41821</v>
       </c>
-      <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="2:13" ht="13.5" thickBot="1">
       <c r="B118" s="8">
         <v>115</v>
       </c>
@@ -5379,18 +5770,21 @@
       <c r="H118" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="I118" s="5">
+        <v>1</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="K118" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K118" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L118" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="2:13" ht="13.5" thickBot="1">
       <c r="B119" s="8">
         <v>116</v>
       </c>
@@ -5413,18 +5807,21 @@
       <c r="H119" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="5">
+        <v>1</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K119" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L119" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="2:13" ht="13.5" thickBot="1">
       <c r="B120" s="8">
         <v>117</v>
       </c>
@@ -5447,18 +5844,21 @@
       <c r="H120" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="5">
+        <v>1</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K120" s="12">
+      <c r="L120" s="12">
         <v>47274</v>
       </c>
-      <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M120" s="3"/>
+    </row>
+    <row r="121" spans="2:13" ht="13.5" thickBot="1">
       <c r="B121" s="8">
         <v>118</v>
       </c>
@@ -5481,18 +5881,21 @@
       <c r="H121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="5">
+        <v>1</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K121" s="10">
+      <c r="L121" s="10">
         <v>46784</v>
       </c>
-      <c r="L121" s="3"/>
-    </row>
-    <row r="122" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="2:13" ht="13.5" thickBot="1">
       <c r="B122" s="8">
         <v>119</v>
       </c>
@@ -5515,18 +5918,21 @@
       <c r="H122" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="5">
+        <v>1</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="K122" s="12">
+      <c r="L122" s="12">
         <v>41580</v>
       </c>
-      <c r="L122" s="3"/>
-    </row>
-    <row r="123" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M122" s="3"/>
+    </row>
+    <row r="123" spans="2:13" ht="13.5" thickBot="1">
       <c r="B123" s="8">
         <v>120</v>
       </c>
@@ -5549,18 +5955,21 @@
       <c r="H123" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I123" s="11" t="s">
+      <c r="I123" s="5">
+        <v>1</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K123" s="10">
+      <c r="L123" s="10">
         <v>47484</v>
       </c>
-      <c r="L123" s="3"/>
-    </row>
-    <row r="124" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="2:13" ht="13.5" thickBot="1">
       <c r="B124" s="8">
         <v>121</v>
       </c>
@@ -5583,18 +5992,21 @@
       <c r="H124" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I124" s="11" t="s">
+      <c r="I124" s="5">
+        <v>1</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K124" s="10">
+      <c r="L124" s="10">
         <v>40330</v>
       </c>
-      <c r="L124" s="3"/>
-    </row>
-    <row r="125" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="2:13" ht="13.5" thickBot="1">
       <c r="B125" s="8">
         <v>122</v>
       </c>
@@ -5617,18 +6029,21 @@
       <c r="H125" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I125" s="11" t="s">
+      <c r="I125" s="5">
+        <v>1</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K125" s="10">
+      <c r="L125" s="10">
         <v>41883</v>
       </c>
-      <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M125" s="3"/>
+    </row>
+    <row r="126" spans="2:13" ht="13.5" thickBot="1">
       <c r="B126" s="8">
         <v>123</v>
       </c>
@@ -5651,18 +6066,21 @@
       <c r="H126" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I126" s="11" t="s">
+      <c r="I126" s="5">
+        <v>1</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="K126" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K126" s="10">
+      <c r="L126" s="10">
         <v>39813</v>
       </c>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M126" s="3"/>
+    </row>
+    <row r="127" spans="2:13" ht="13.5" thickBot="1">
       <c r="B127" s="8">
         <v>124</v>
       </c>
@@ -5685,18 +6103,21 @@
       <c r="H127" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="5">
+        <v>1</v>
+      </c>
+      <c r="J127" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="K127" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K127" s="10">
+      <c r="L127" s="10">
         <v>45626</v>
       </c>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="2:13" ht="13.5" thickBot="1">
       <c r="B128" s="8">
         <v>125</v>
       </c>
@@ -5719,18 +6140,21 @@
       <c r="H128" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I128" s="11" t="s">
+      <c r="I128" s="5">
+        <v>1</v>
+      </c>
+      <c r="J128" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K128" s="10">
+      <c r="L128" s="10">
         <v>45524</v>
       </c>
-      <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="2:13" ht="13.5" thickBot="1">
       <c r="B129" s="8">
         <v>126</v>
       </c>
@@ -5753,18 +6177,21 @@
       <c r="H129" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I129" s="11" t="s">
+      <c r="I129" s="5">
+        <v>1</v>
+      </c>
+      <c r="J129" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="K129" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K129" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L129" s="3"/>
-    </row>
-    <row r="130" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L129" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="2:13" ht="13.5" thickBot="1">
       <c r="B130" s="8">
         <v>127</v>
       </c>
@@ -5787,18 +6214,21 @@
       <c r="H130" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I130" s="11" t="s">
+      <c r="I130" s="5">
+        <v>1</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="K130" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K130" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L130" s="3"/>
-    </row>
-    <row r="131" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L130" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="2:13" ht="13.5" thickBot="1">
       <c r="B131" s="8">
         <v>128</v>
       </c>
@@ -5821,18 +6251,21 @@
       <c r="H131" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I131" s="11" t="s">
+      <c r="I131" s="5">
+        <v>1</v>
+      </c>
+      <c r="J131" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="K131" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K131" s="10">
+      <c r="L131" s="10">
         <v>45725</v>
       </c>
-      <c r="L131" s="3"/>
-    </row>
-    <row r="132" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M131" s="3"/>
+    </row>
+    <row r="132" spans="2:13" ht="13.5" thickBot="1">
       <c r="B132" s="8">
         <v>129</v>
       </c>
@@ -5855,18 +6288,21 @@
       <c r="H132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I132" s="11" t="s">
+      <c r="I132" s="5">
+        <v>1</v>
+      </c>
+      <c r="J132" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="K132" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K132" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L132" s="3"/>
-    </row>
-    <row r="133" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L132" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M132" s="3"/>
+    </row>
+    <row r="133" spans="2:13" ht="13.5" thickBot="1">
       <c r="B133" s="8">
         <v>130</v>
       </c>
@@ -5889,18 +6325,21 @@
       <c r="H133" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I133" s="11" t="s">
+      <c r="I133" s="5">
+        <v>1</v>
+      </c>
+      <c r="J133" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="K133" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K133" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L133" s="3"/>
-    </row>
-    <row r="134" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L133" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" s="3"/>
+    </row>
+    <row r="134" spans="2:13" ht="13.5" thickBot="1">
       <c r="B134" s="8">
         <v>131</v>
       </c>
@@ -5923,18 +6362,21 @@
       <c r="H134" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I134" s="11" t="s">
+      <c r="I134" s="5">
+        <v>1</v>
+      </c>
+      <c r="J134" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="K134" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K134" s="10">
+      <c r="L134" s="10">
         <v>39813</v>
       </c>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M134" s="3"/>
+    </row>
+    <row r="135" spans="2:13" ht="13.5" thickBot="1">
       <c r="B135" s="8">
         <v>132</v>
       </c>
@@ -5957,18 +6399,21 @@
       <c r="H135" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="I135" s="5">
+        <v>1</v>
+      </c>
+      <c r="J135" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="K135" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K135" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L135" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" s="3"/>
+    </row>
+    <row r="136" spans="2:13" ht="13.5" thickBot="1">
       <c r="B136" s="8">
         <v>133</v>
       </c>
@@ -5991,18 +6436,21 @@
       <c r="H136" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I136" s="5">
+        <v>1</v>
+      </c>
+      <c r="J136" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="K136" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K136" s="10">
+      <c r="L136" s="10">
         <v>41214</v>
       </c>
-      <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M136" s="3"/>
+    </row>
+    <row r="137" spans="2:13" ht="13.5" thickBot="1">
       <c r="B137" s="8">
         <v>134</v>
       </c>
@@ -6025,18 +6473,21 @@
       <c r="H137" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="5">
+        <v>1</v>
+      </c>
+      <c r="J137" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K137" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L137" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" s="3"/>
+    </row>
+    <row r="138" spans="2:13" ht="13.5" thickBot="1">
       <c r="B138" s="8">
         <v>135</v>
       </c>
@@ -6059,18 +6510,21 @@
       <c r="H138" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I138" s="11" t="s">
+      <c r="I138" s="5">
+        <v>1</v>
+      </c>
+      <c r="J138" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="K138" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K138" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L138" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" spans="2:13" ht="13.5" thickBot="1">
       <c r="B139" s="8">
         <v>137</v>
       </c>
@@ -6093,18 +6547,21 @@
       <c r="H139" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I139" s="11" t="s">
+      <c r="I139" s="5">
+        <v>6</v>
+      </c>
+      <c r="J139" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="K139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K139" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L139" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M139" s="3"/>
+    </row>
+    <row r="140" spans="2:13" ht="13.5" thickBot="1">
       <c r="B140" s="8">
         <v>138</v>
       </c>
@@ -6127,18 +6584,21 @@
       <c r="H140" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="5">
+        <v>6</v>
+      </c>
+      <c r="J140" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="K140" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K140" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L140" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M140" s="3"/>
+    </row>
+    <row r="141" spans="2:13" ht="13.5" thickBot="1">
       <c r="B141" s="8">
         <v>139</v>
       </c>
@@ -6161,18 +6621,21 @@
       <c r="H141" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I141" s="11" t="s">
+      <c r="I141" s="5">
+        <v>6</v>
+      </c>
+      <c r="J141" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="K141" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K141" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L141" s="3"/>
-    </row>
-    <row r="142" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L141" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141" s="3"/>
+    </row>
+    <row r="142" spans="2:13" ht="13.5" thickBot="1">
       <c r="B142" s="8">
         <v>140</v>
       </c>
@@ -6195,18 +6658,21 @@
       <c r="H142" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I142" s="11" t="s">
+      <c r="I142" s="5">
+        <v>6</v>
+      </c>
+      <c r="J142" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="K142" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K142" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L142" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="2:13" ht="13.5" thickBot="1">
       <c r="B143" s="8">
         <v>141</v>
       </c>
@@ -6229,18 +6695,21 @@
       <c r="H143" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I143" s="11" t="s">
+      <c r="I143" s="5">
+        <v>6</v>
+      </c>
+      <c r="J143" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="K143" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K143" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L143" s="3"/>
-    </row>
-    <row r="144" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L143" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M143" s="3"/>
+    </row>
+    <row r="144" spans="2:13" ht="13.5" thickBot="1">
       <c r="B144" s="8">
         <v>142</v>
       </c>
@@ -6263,18 +6732,21 @@
       <c r="H144" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I144" s="11" t="s">
+      <c r="I144" s="5">
+        <v>6</v>
+      </c>
+      <c r="J144" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="K144" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K144" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L144" s="3"/>
-    </row>
-    <row r="145" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L144" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" s="3"/>
+    </row>
+    <row r="145" spans="2:13" ht="13.5" thickBot="1">
       <c r="B145" s="8">
         <v>143</v>
       </c>
@@ -6297,18 +6769,21 @@
       <c r="H145" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I145" s="11" t="s">
+      <c r="I145" s="5">
+        <v>6</v>
+      </c>
+      <c r="J145" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="K145" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K145" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L145" s="3"/>
-    </row>
-    <row r="146" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L145" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="3"/>
+    </row>
+    <row r="146" spans="2:13" ht="13.5" thickBot="1">
       <c r="B146" s="8">
         <v>144</v>
       </c>
@@ -6331,18 +6806,21 @@
       <c r="H146" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I146" s="11" t="s">
+      <c r="I146" s="5">
+        <v>6</v>
+      </c>
+      <c r="J146" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="K146" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K146" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L146" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M146" s="3"/>
+    </row>
+    <row r="147" spans="2:13" ht="13.5" thickBot="1">
       <c r="B147" s="8">
         <v>145</v>
       </c>
@@ -6365,18 +6843,21 @@
       <c r="H147" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I147" s="11" t="s">
+      <c r="I147" s="5">
+        <v>6</v>
+      </c>
+      <c r="J147" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="K147" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="K147" s="10">
+      <c r="L147" s="10">
         <v>40940</v>
       </c>
-      <c r="L147" s="3"/>
-    </row>
-    <row r="148" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M147" s="3"/>
+    </row>
+    <row r="148" spans="2:13" ht="13.5" thickBot="1">
       <c r="B148" s="8">
         <v>146</v>
       </c>
@@ -6399,18 +6880,21 @@
       <c r="H148" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I148" s="5">
+        <v>6</v>
+      </c>
+      <c r="J148" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="K148" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K148" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="2:13" ht="13.5" thickBot="1">
       <c r="B149" s="8">
         <v>147</v>
       </c>
@@ -6433,18 +6917,21 @@
       <c r="H149" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="I149" s="5">
+        <v>6</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="K149" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K149" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L149" s="3"/>
-    </row>
-    <row r="150" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" s="3"/>
+    </row>
+    <row r="150" spans="2:13" ht="13.5" thickBot="1">
       <c r="B150" s="8">
         <v>148</v>
       </c>
@@ -6467,18 +6954,21 @@
       <c r="H150" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="I150" s="5">
+        <v>6</v>
+      </c>
+      <c r="J150" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="K150" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K150" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L150" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="2:13" ht="13.5" thickBot="1">
       <c r="B151" s="8">
         <v>149</v>
       </c>
@@ -6501,18 +6991,21 @@
       <c r="H151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I151" s="3" t="s">
+      <c r="I151" s="5">
+        <v>6</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="K151" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K151" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L151" s="3"/>
-    </row>
-    <row r="152" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M151" s="3"/>
+    </row>
+    <row r="152" spans="2:13" ht="13.5" thickBot="1">
       <c r="B152" s="8">
         <v>150</v>
       </c>
@@ -6535,18 +7028,21 @@
       <c r="H152" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="I152" s="5">
+        <v>6</v>
+      </c>
+      <c r="J152" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="K152" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K152" s="12">
+      <c r="L152" s="12">
         <v>39141</v>
       </c>
-      <c r="L152" s="3"/>
-    </row>
-    <row r="153" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M152" s="3"/>
+    </row>
+    <row r="153" spans="2:13" ht="13.5" thickBot="1">
       <c r="B153" s="8">
         <v>151</v>
       </c>
@@ -6569,18 +7065,21 @@
       <c r="H153" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="I153" s="5">
+        <v>6</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="K153" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K153" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L153" s="3"/>
-    </row>
-    <row r="154" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M153" s="3"/>
+    </row>
+    <row r="154" spans="2:13" ht="13.5" thickBot="1">
       <c r="B154" s="8">
         <v>152</v>
       </c>
@@ -6603,18 +7102,21 @@
       <c r="H154" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="I154" s="5">
+        <v>6</v>
+      </c>
+      <c r="J154" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="K154" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K154" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M154" s="3"/>
+    </row>
+    <row r="155" spans="2:13" ht="13.5" thickBot="1">
       <c r="B155" s="8">
         <v>153</v>
       </c>
@@ -6637,18 +7139,21 @@
       <c r="H155" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="I155" s="5">
+        <v>6</v>
+      </c>
+      <c r="J155" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="K155" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K155" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L155" s="3"/>
-    </row>
-    <row r="156" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L155" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M155" s="3"/>
+    </row>
+    <row r="156" spans="2:13" ht="13.5" thickBot="1">
       <c r="B156" s="8">
         <v>154</v>
       </c>
@@ -6671,18 +7176,21 @@
       <c r="H156" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="I156" s="5">
+        <v>6</v>
+      </c>
+      <c r="J156" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="K156" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K156" s="10">
+      <c r="L156" s="10">
         <v>40848</v>
       </c>
-      <c r="L156" s="3"/>
-    </row>
-    <row r="157" spans="2:12" ht="13.8" thickBot="1">
+      <c r="M156" s="3"/>
+    </row>
+    <row r="157" spans="2:13" ht="13.5" thickBot="1">
       <c r="B157" s="8">
         <v>155</v>
       </c>
@@ -6705,18 +7213,21 @@
       <c r="H157" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="I157" s="5">
+        <v>6</v>
+      </c>
+      <c r="J157" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="K157" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K157" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L157" s="3"/>
-    </row>
-    <row r="158" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" spans="2:13" ht="13.5" thickBot="1">
       <c r="B158" s="8">
         <v>156</v>
       </c>
@@ -6739,18 +7250,21 @@
       <c r="H158" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="I158" s="5">
+        <v>6</v>
+      </c>
+      <c r="J158" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="K158" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K158" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L158" s="3"/>
-    </row>
-    <row r="159" spans="2:12" ht="13.8" thickBot="1">
+      <c r="L158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M158" s="3"/>
+    </row>
+    <row r="159" spans="2:13" ht="13.5" thickBot="1">
       <c r="B159" s="8">
         <v>157</v>
       </c>
@@ -6773,23 +7287,26 @@
       <c r="H159" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="I159" s="5">
+        <v>6</v>
+      </c>
+      <c r="J159" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="K159" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M159" s="3"/>
+    </row>
+    <row r="160" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="E160" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C2:M2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6798,6 +7315,137 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6DB972-6693-4F5D-8FB8-5B60CD56632A}">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B16"/>
   <sheetViews>
@@ -6805,13 +7453,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
@@ -6819,7 +7467,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8" thickBot="1">
+    <row r="3" spans="1:2" ht="13.5" thickBot="1">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -6827,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickBot="1">
+    <row r="4" spans="1:2" ht="13.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -6835,7 +7483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.8" thickBot="1">
+    <row r="5" spans="1:2" ht="13.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -6843,7 +7491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.8" thickBot="1">
+    <row r="6" spans="1:2" ht="13.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -6851,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.8" thickBot="1">
+    <row r="7" spans="1:2" ht="13.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -6859,7 +7507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.8" thickBot="1">
+    <row r="8" spans="1:2" ht="13.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -6867,7 +7515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.8" thickBot="1">
+    <row r="9" spans="1:2" ht="13.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -6875,7 +7523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.8" thickBot="1">
+    <row r="10" spans="1:2" ht="13.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -6883,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.8" thickBot="1">
+    <row r="11" spans="1:2" ht="13.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -6891,7 +7539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.8" thickBot="1">
+    <row r="12" spans="1:2" ht="13.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
@@ -6899,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.8" thickBot="1">
+    <row r="13" spans="1:2" ht="13.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -6907,7 +7555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.8" thickBot="1">
+    <row r="14" spans="1:2" ht="13.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>183</v>
       </c>
@@ -6915,7 +7563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.8" thickBot="1">
+    <row r="15" spans="1:2" ht="13.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -6923,7 +7571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.8" thickBot="1">
+    <row r="16" spans="1:2" ht="13.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>192</v>
       </c>
@@ -6936,31 +7584,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:K23"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="6" max="6" width="21" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:12" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="C2" s="41" t="s">
         <v>206</v>
       </c>
@@ -6971,9 +7620,10 @@
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
@@ -6984,25 +7634,28 @@
         <v>5</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B4" s="25">
         <v>1</v>
       </c>
@@ -7015,20 +7668,24 @@
       <c r="E4" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="34" cm="1">
+        <f t="array" ref="F4:F16">VLOOKUP(E4:E16,Ubicaciones!$A$2:$B$15,2,)</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="H4" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="30">
+      <c r="I4" s="30">
         <v>2</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="25">
         <v>2</v>
       </c>
@@ -7041,20 +7698,23 @@
       <c r="E5" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="30">
+        <v>7</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="30">
+      <c r="I5" s="30">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="J5" s="31"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="25">
         <v>3</v>
       </c>
@@ -7067,20 +7727,23 @@
       <c r="E6" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="30">
+        <v>7</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="H6" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="30">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="25">
         <v>4</v>
       </c>
@@ -7093,20 +7756,23 @@
       <c r="E7" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="30">
+        <v>7</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="H7" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="30">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="25">
         <v>5</v>
       </c>
@@ -7119,18 +7785,21 @@
       <c r="E8" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="30">
+        <v>7</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="H8" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="25">
         <v>7</v>
       </c>
@@ -7143,18 +7812,21 @@
       <c r="E9" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="30">
+        <v>7</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="H9" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="25">
         <v>8</v>
       </c>
@@ -7167,18 +7839,21 @@
       <c r="E10" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="H10" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="25">
         <v>9</v>
       </c>
@@ -7191,18 +7866,21 @@
       <c r="E11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="30">
+        <v>8</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="H11" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="25">
         <v>10</v>
       </c>
@@ -7215,18 +7893,21 @@
       <c r="E12" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="30">
+        <v>8</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="H12" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B13" s="25">
         <v>11</v>
       </c>
@@ -7239,20 +7920,23 @@
       <c r="E13" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="35">
+        <v>9</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31">
-        <v>1</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="35">
+      <c r="H13" s="33"/>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="35">
         <v>534031</v>
       </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="25">
         <v>12</v>
       </c>
@@ -7265,20 +7949,23 @@
       <c r="E14" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="35">
+        <v>10</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31">
-        <v>1</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="35">
+      <c r="H14" s="33"/>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="35">
         <v>531030</v>
       </c>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="25">
         <v>13</v>
       </c>
@@ -7291,20 +7978,23 @@
       <c r="E15" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30">
+        <v>11</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="35">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="35">
         <v>539010</v>
       </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="25">
         <v>14</v>
       </c>
@@ -7317,54 +8007,58 @@
       <c r="E16" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="36">
+        <v>12</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="35">
+      <c r="H16" s="31"/>
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="35">
         <v>539007</v>
       </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1">
+      <c r="L16" s="31"/>
+    </row>
+    <row r="23" spans="5:6" ht="15.75" customHeight="1">
       <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1">
       <c r="C2" s="41" t="s">
         <v>211</v>
       </c>
@@ -7372,9 +8066,10 @@
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7390,11 +8085,14 @@
       <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1">
       <c r="B4" s="16">
         <v>1</v>
       </c>
@@ -7413,9 +8111,13 @@
       <c r="G4" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H4" s="44" cm="1">
+        <f t="array" ref="H4:H11">VLOOKUP(G4:G11,Ubicaciones!$A$2:$B$15,2,)</f>
+        <v>13</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1">
       <c r="B5" s="16">
         <v>2</v>
       </c>
@@ -7434,9 +8136,12 @@
       <c r="G5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H5" s="44">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1">
       <c r="B6" s="16">
         <v>3</v>
       </c>
@@ -7455,9 +8160,12 @@
       <c r="G6" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H6" s="44">
+        <v>13</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -7476,9 +8184,12 @@
       <c r="G7" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H7" s="44">
+        <v>13</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
       <c r="B8" s="16">
         <v>5</v>
       </c>
@@ -7497,9 +8208,12 @@
       <c r="G8" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H8" s="44">
+        <v>13</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
       <c r="B9" s="16">
         <v>6</v>
       </c>
@@ -7518,9 +8232,12 @@
       <c r="G9" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H9" s="44">
+        <v>13</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1">
       <c r="B10" s="16">
         <v>7</v>
       </c>
@@ -7539,9 +8256,12 @@
       <c r="G10" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
+      <c r="H10" s="44">
+        <v>13</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1">
       <c r="B11" s="16">
         <v>8</v>
       </c>
@@ -7560,17 +8280,20 @@
       <c r="G11" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="44">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480424D3-EDB6-4AAD-A08E-C07370F782DC}">
   <dimension ref="B1:G15"/>
   <sheetViews>
@@ -7578,9 +8301,9 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">

--- a/Reactivos.xlsx
+++ b/Reactivos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\OneDrive\Escritorio\queChimbaSos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\Desktop\queChimbaSos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47917552-8599-4AA6-90F8-44CA83E9B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1BC3A-D791-462E-893B-7C3B696B5E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de reactivos del almacé" sheetId="1" r:id="rId1"/>
@@ -22,31 +22,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Formato!$A$1:$A$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado de reactivos del almacé'!$C$3:$M$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1224,6 +1214,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,9 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1456,41 +1446,41 @@
   </sheetPr>
   <dimension ref="B1:N160"/>
   <sheetViews>
-    <sheetView topLeftCell="D136" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
@@ -1528,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="15" thickBot="1">
+    <row r="4" spans="2:14" ht="14.4" thickBot="1">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1566,7 +1556,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1">
+    <row r="5" spans="2:14" ht="14.4" thickBot="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1603,7 +1593,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1">
+    <row r="6" spans="2:14" ht="14.4" thickBot="1">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1640,7 +1630,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1">
+    <row r="7" spans="2:14" ht="14.4" thickBot="1">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1677,7 +1667,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1">
+    <row r="8" spans="2:14" ht="14.4" thickBot="1">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1714,7 +1704,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
+    <row r="9" spans="2:14" ht="14.4" thickBot="1">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1751,7 +1741,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1">
+    <row r="10" spans="2:14" ht="14.4" thickBot="1">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1788,7 +1778,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1">
+    <row r="11" spans="2:14" ht="14.4" thickBot="1">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1825,7 +1815,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
+    <row r="12" spans="2:14" ht="14.4" thickBot="1">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1862,7 +1852,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:14" ht="13.5" thickBot="1">
+    <row r="13" spans="2:14" ht="13.8" thickBot="1">
       <c r="B13" s="8">
         <v>10</v>
       </c>
@@ -1899,7 +1889,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:14" ht="13.5" thickBot="1">
+    <row r="14" spans="2:14" ht="13.8" thickBot="1">
       <c r="B14" s="8">
         <v>11</v>
       </c>
@@ -1936,7 +1926,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:14" ht="13.5" thickBot="1">
+    <row r="15" spans="2:14" ht="13.8" thickBot="1">
       <c r="B15" s="8">
         <v>12</v>
       </c>
@@ -1973,7 +1963,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:14" ht="13.5" thickBot="1">
+    <row r="16" spans="2:14" ht="13.8" thickBot="1">
       <c r="B16" s="8">
         <v>13</v>
       </c>
@@ -2010,7 +2000,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="13.5" thickBot="1">
+    <row r="17" spans="2:13" ht="13.8" thickBot="1">
       <c r="B17" s="8">
         <v>14</v>
       </c>
@@ -2047,7 +2037,7 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="13.5" thickBot="1">
+    <row r="18" spans="2:13" ht="13.8" thickBot="1">
       <c r="B18" s="8">
         <v>15</v>
       </c>
@@ -2084,7 +2074,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" ht="13.5" thickBot="1">
+    <row r="19" spans="2:13" ht="13.8" thickBot="1">
       <c r="B19" s="8">
         <v>16</v>
       </c>
@@ -2121,7 +2111,7 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" ht="13.5" thickBot="1">
+    <row r="20" spans="2:13" ht="13.8" thickBot="1">
       <c r="B20" s="8">
         <v>17</v>
       </c>
@@ -2158,7 +2148,7 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" ht="13.5" thickBot="1">
+    <row r="21" spans="2:13" ht="13.8" thickBot="1">
       <c r="B21" s="8">
         <v>18</v>
       </c>
@@ -2195,7 +2185,7 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" ht="13.5" thickBot="1">
+    <row r="22" spans="2:13" ht="13.8" thickBot="1">
       <c r="B22" s="8">
         <v>19</v>
       </c>
@@ -2232,7 +2222,7 @@
       </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" ht="13.5" thickBot="1">
+    <row r="23" spans="2:13" ht="13.8" thickBot="1">
       <c r="B23" s="8">
         <v>20</v>
       </c>
@@ -2269,7 +2259,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" ht="13.5" thickBot="1">
+    <row r="24" spans="2:13" ht="13.8" thickBot="1">
       <c r="B24" s="8">
         <v>21</v>
       </c>
@@ -2306,7 +2296,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" ht="13.5" thickBot="1">
+    <row r="25" spans="2:13" ht="13.8" thickBot="1">
       <c r="B25" s="8">
         <v>22</v>
       </c>
@@ -2343,7 +2333,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" ht="13.5" thickBot="1">
+    <row r="26" spans="2:13" ht="13.8" thickBot="1">
       <c r="B26" s="8">
         <v>23</v>
       </c>
@@ -2380,7 +2370,7 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="2:13" ht="13.5" thickBot="1">
+    <row r="27" spans="2:13" ht="13.8" thickBot="1">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -2417,7 +2407,7 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:13" ht="13.5" thickBot="1">
+    <row r="28" spans="2:13" ht="13.8" thickBot="1">
       <c r="B28" s="8">
         <v>25</v>
       </c>
@@ -2454,7 +2444,7 @@
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="2:13" ht="13.5" thickBot="1">
+    <row r="29" spans="2:13" ht="13.8" thickBot="1">
       <c r="B29" s="8">
         <v>26</v>
       </c>
@@ -2491,7 +2481,7 @@
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:13" ht="13.5" thickBot="1">
+    <row r="30" spans="2:13" ht="13.8" thickBot="1">
       <c r="B30" s="8">
         <v>27</v>
       </c>
@@ -2528,7 +2518,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" ht="13.5" thickBot="1">
+    <row r="31" spans="2:13" ht="13.8" thickBot="1">
       <c r="B31" s="8">
         <v>28</v>
       </c>
@@ -2565,7 +2555,7 @@
       </c>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:13" ht="13.5" thickBot="1">
+    <row r="32" spans="2:13" ht="13.8" thickBot="1">
       <c r="B32" s="8">
         <v>29</v>
       </c>
@@ -2602,7 +2592,7 @@
       </c>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" ht="13.5" thickBot="1">
+    <row r="33" spans="2:13" ht="13.8" thickBot="1">
       <c r="B33" s="8">
         <v>30</v>
       </c>
@@ -2639,7 +2629,7 @@
       </c>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="2:13" ht="13.5" thickBot="1">
+    <row r="34" spans="2:13" ht="13.8" thickBot="1">
       <c r="B34" s="8">
         <v>31</v>
       </c>
@@ -2676,7 +2666,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" ht="13.5" thickBot="1">
+    <row r="35" spans="2:13" ht="13.8" thickBot="1">
       <c r="B35" s="8">
         <v>32</v>
       </c>
@@ -2713,7 +2703,7 @@
       </c>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="2:13" ht="13.5" thickBot="1">
+    <row r="36" spans="2:13" ht="13.8" thickBot="1">
       <c r="B36" s="8">
         <v>33</v>
       </c>
@@ -2750,7 +2740,7 @@
       </c>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="2:13" ht="13.5" thickBot="1">
+    <row r="37" spans="2:13" ht="13.8" thickBot="1">
       <c r="B37" s="8">
         <v>34</v>
       </c>
@@ -2787,7 +2777,7 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:13" ht="13.5" thickBot="1">
+    <row r="38" spans="2:13" ht="13.8" thickBot="1">
       <c r="B38" s="8">
         <v>35</v>
       </c>
@@ -2824,7 +2814,7 @@
       </c>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:13" ht="13.5" thickBot="1">
+    <row r="39" spans="2:13" ht="13.8" thickBot="1">
       <c r="B39" s="8">
         <v>36</v>
       </c>
@@ -2861,7 +2851,7 @@
       </c>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:13" ht="13.5" thickBot="1">
+    <row r="40" spans="2:13" ht="13.8" thickBot="1">
       <c r="B40" s="8">
         <v>37</v>
       </c>
@@ -2898,7 +2888,7 @@
       </c>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="2:13" ht="13.5" thickBot="1">
+    <row r="41" spans="2:13" ht="13.8" thickBot="1">
       <c r="B41" s="8">
         <v>38</v>
       </c>
@@ -2935,7 +2925,7 @@
       </c>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="2:13" ht="13.5" thickBot="1">
+    <row r="42" spans="2:13" ht="13.8" thickBot="1">
       <c r="B42" s="8">
         <v>39</v>
       </c>
@@ -2972,7 +2962,7 @@
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="2:13" ht="13.5" thickBot="1">
+    <row r="43" spans="2:13" ht="13.8" thickBot="1">
       <c r="B43" s="8">
         <v>40</v>
       </c>
@@ -3009,7 +2999,7 @@
       </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:13" ht="13.5" thickBot="1">
+    <row r="44" spans="2:13" ht="13.8" thickBot="1">
       <c r="B44" s="8">
         <v>41</v>
       </c>
@@ -3046,7 +3036,7 @@
       </c>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="2:13" ht="13.5" thickBot="1">
+    <row r="45" spans="2:13" ht="13.8" thickBot="1">
       <c r="B45" s="8">
         <v>42</v>
       </c>
@@ -3083,7 +3073,7 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="2:13" ht="13.5" thickBot="1">
+    <row r="46" spans="2:13" ht="13.8" thickBot="1">
       <c r="B46" s="8">
         <v>43</v>
       </c>
@@ -3120,7 +3110,7 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:13" ht="13.5" thickBot="1">
+    <row r="47" spans="2:13" ht="13.8" thickBot="1">
       <c r="B47" s="8">
         <v>44</v>
       </c>
@@ -3157,7 +3147,7 @@
       </c>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="2:13" ht="13.5" thickBot="1">
+    <row r="48" spans="2:13" ht="13.8" thickBot="1">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -3194,7 +3184,7 @@
       </c>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="2:13" ht="13.5" thickBot="1">
+    <row r="49" spans="2:13" ht="13.8" thickBot="1">
       <c r="B49" s="8">
         <v>46</v>
       </c>
@@ -3231,7 +3221,7 @@
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="2:13" ht="13.5" thickBot="1">
+    <row r="50" spans="2:13" ht="13.8" thickBot="1">
       <c r="B50" s="8">
         <v>47</v>
       </c>
@@ -3268,7 +3258,7 @@
       </c>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="2:13" ht="13.5" thickBot="1">
+    <row r="51" spans="2:13" ht="13.8" thickBot="1">
       <c r="B51" s="8">
         <v>48</v>
       </c>
@@ -3305,7 +3295,7 @@
       </c>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="2:13" ht="13.5" thickBot="1">
+    <row r="52" spans="2:13" ht="13.8" thickBot="1">
       <c r="B52" s="8">
         <v>49</v>
       </c>
@@ -3342,7 +3332,7 @@
       </c>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="2:13" ht="13.5" thickBot="1">
+    <row r="53" spans="2:13" ht="13.8" thickBot="1">
       <c r="B53" s="8">
         <v>50</v>
       </c>
@@ -3379,7 +3369,7 @@
       </c>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="2:13" ht="13.5" thickBot="1">
+    <row r="54" spans="2:13" ht="13.8" thickBot="1">
       <c r="B54" s="8">
         <v>51</v>
       </c>
@@ -3416,7 +3406,7 @@
       </c>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="2:13" ht="13.5" thickBot="1">
+    <row r="55" spans="2:13" ht="13.8" thickBot="1">
       <c r="B55" s="8">
         <v>52</v>
       </c>
@@ -3453,7 +3443,7 @@
       </c>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="2:13" ht="13.5" thickBot="1">
+    <row r="56" spans="2:13" ht="13.8" thickBot="1">
       <c r="B56" s="8">
         <v>53</v>
       </c>
@@ -3490,7 +3480,7 @@
       </c>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="2:13" ht="13.5" thickBot="1">
+    <row r="57" spans="2:13" ht="13.8" thickBot="1">
       <c r="B57" s="8">
         <v>54</v>
       </c>
@@ -3527,7 +3517,7 @@
       </c>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="2:13" ht="13.5" thickBot="1">
+    <row r="58" spans="2:13" ht="13.8" thickBot="1">
       <c r="B58" s="8">
         <v>55</v>
       </c>
@@ -3564,7 +3554,7 @@
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="2:13" ht="13.5" thickBot="1">
+    <row r="59" spans="2:13" ht="13.8" thickBot="1">
       <c r="B59" s="8">
         <v>56</v>
       </c>
@@ -3601,7 +3591,7 @@
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="2:13" ht="13.5" thickBot="1">
+    <row r="60" spans="2:13" ht="13.8" thickBot="1">
       <c r="B60" s="8">
         <v>57</v>
       </c>
@@ -3638,7 +3628,7 @@
       </c>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="2:13" ht="13.5" thickBot="1">
+    <row r="61" spans="2:13" ht="13.8" thickBot="1">
       <c r="B61" s="8">
         <v>58</v>
       </c>
@@ -3675,7 +3665,7 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="2:13" ht="13.5" thickBot="1">
+    <row r="62" spans="2:13" ht="13.8" thickBot="1">
       <c r="B62" s="8">
         <v>59</v>
       </c>
@@ -3712,7 +3702,7 @@
       </c>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="2:13" ht="13.5" thickBot="1">
+    <row r="63" spans="2:13" ht="13.8" thickBot="1">
       <c r="B63" s="8">
         <v>60</v>
       </c>
@@ -3749,7 +3739,7 @@
       </c>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:13" ht="13.5" thickBot="1">
+    <row r="64" spans="2:13" ht="13.8" thickBot="1">
       <c r="B64" s="8">
         <v>61</v>
       </c>
@@ -3786,7 +3776,7 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" ht="13.5" thickBot="1">
+    <row r="65" spans="2:13" ht="13.8" thickBot="1">
       <c r="B65" s="8">
         <v>62</v>
       </c>
@@ -3823,7 +3813,7 @@
       </c>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" ht="13.5" thickBot="1">
+    <row r="66" spans="2:13" ht="13.8" thickBot="1">
       <c r="B66" s="8">
         <v>63</v>
       </c>
@@ -3860,7 +3850,7 @@
       </c>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="2:13" ht="13.5" thickBot="1">
+    <row r="67" spans="2:13" ht="13.8" thickBot="1">
       <c r="B67" s="8">
         <v>64</v>
       </c>
@@ -3897,7 +3887,7 @@
       </c>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="2:13" ht="13.5" thickBot="1">
+    <row r="68" spans="2:13" ht="13.8" thickBot="1">
       <c r="B68" s="8">
         <v>65</v>
       </c>
@@ -3934,7 +3924,7 @@
       </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="2:13" ht="13.5" thickBot="1">
+    <row r="69" spans="2:13" ht="13.8" thickBot="1">
       <c r="B69" s="8">
         <v>66</v>
       </c>
@@ -3971,7 +3961,7 @@
       </c>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="2:13" ht="13.5" thickBot="1">
+    <row r="70" spans="2:13" ht="13.8" thickBot="1">
       <c r="B70" s="8">
         <v>67</v>
       </c>
@@ -4008,7 +3998,7 @@
       </c>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="2:13" ht="13.5" thickBot="1">
+    <row r="71" spans="2:13" ht="13.8" thickBot="1">
       <c r="B71" s="8">
         <v>68</v>
       </c>
@@ -4045,7 +4035,7 @@
       </c>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="2:13" ht="13.5" thickBot="1">
+    <row r="72" spans="2:13" ht="13.8" thickBot="1">
       <c r="B72" s="8">
         <v>69</v>
       </c>
@@ -4082,7 +4072,7 @@
       </c>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="2:13" ht="13.5" thickBot="1">
+    <row r="73" spans="2:13" ht="13.8" thickBot="1">
       <c r="B73" s="8">
         <v>70</v>
       </c>
@@ -4119,7 +4109,7 @@
       </c>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="2:13" ht="13.5" thickBot="1">
+    <row r="74" spans="2:13" ht="13.8" thickBot="1">
       <c r="B74" s="8">
         <v>71</v>
       </c>
@@ -4156,7 +4146,7 @@
       </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="2:13" ht="13.5" thickBot="1">
+    <row r="75" spans="2:13" ht="13.8" thickBot="1">
       <c r="B75" s="8">
         <v>72</v>
       </c>
@@ -4193,7 +4183,7 @@
       </c>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="2:13" ht="13.5" thickBot="1">
+    <row r="76" spans="2:13" ht="13.8" thickBot="1">
       <c r="B76" s="8">
         <v>73</v>
       </c>
@@ -4230,7 +4220,7 @@
       </c>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="2:13" ht="13.5" thickBot="1">
+    <row r="77" spans="2:13" ht="13.8" thickBot="1">
       <c r="B77" s="8">
         <v>74</v>
       </c>
@@ -4267,7 +4257,7 @@
       </c>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="2:13" ht="13.5" thickBot="1">
+    <row r="78" spans="2:13" ht="13.8" thickBot="1">
       <c r="B78" s="8">
         <v>75</v>
       </c>
@@ -4304,7 +4294,7 @@
       </c>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="2:13" ht="13.5" thickBot="1">
+    <row r="79" spans="2:13" ht="13.8" thickBot="1">
       <c r="B79" s="8">
         <v>76</v>
       </c>
@@ -4341,7 +4331,7 @@
       </c>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="2:13" ht="13.5" thickBot="1">
+    <row r="80" spans="2:13" ht="13.8" thickBot="1">
       <c r="B80" s="8">
         <v>77</v>
       </c>
@@ -4378,7 +4368,7 @@
       </c>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="2:13" ht="13.5" thickBot="1">
+    <row r="81" spans="2:13" ht="13.8" thickBot="1">
       <c r="B81" s="8">
         <v>78</v>
       </c>
@@ -4415,7 +4405,7 @@
       </c>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="2:13" ht="13.5" thickBot="1">
+    <row r="82" spans="2:13" ht="13.8" thickBot="1">
       <c r="B82" s="8">
         <v>79</v>
       </c>
@@ -4452,7 +4442,7 @@
       </c>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="2:13" ht="13.5" thickBot="1">
+    <row r="83" spans="2:13" ht="13.8" thickBot="1">
       <c r="B83" s="8">
         <v>80</v>
       </c>
@@ -4489,7 +4479,7 @@
       </c>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="2:13" ht="13.5" thickBot="1">
+    <row r="84" spans="2:13" ht="13.8" thickBot="1">
       <c r="B84" s="8">
         <v>81</v>
       </c>
@@ -4526,7 +4516,7 @@
       </c>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="2:13" ht="13.5" thickBot="1">
+    <row r="85" spans="2:13" ht="13.8" thickBot="1">
       <c r="B85" s="8">
         <v>82</v>
       </c>
@@ -4563,7 +4553,7 @@
       </c>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="2:13" ht="13.5" thickBot="1">
+    <row r="86" spans="2:13" ht="13.8" thickBot="1">
       <c r="B86" s="8">
         <v>83</v>
       </c>
@@ -4600,7 +4590,7 @@
       </c>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="2:13" ht="13.5" thickBot="1">
+    <row r="87" spans="2:13" ht="13.8" thickBot="1">
       <c r="B87" s="8">
         <v>84</v>
       </c>
@@ -4637,7 +4627,7 @@
       </c>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="2:13" ht="13.5" thickBot="1">
+    <row r="88" spans="2:13" ht="13.8" thickBot="1">
       <c r="B88" s="8">
         <v>85</v>
       </c>
@@ -4674,7 +4664,7 @@
       </c>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="2:13" ht="13.5" thickBot="1">
+    <row r="89" spans="2:13" ht="13.8" thickBot="1">
       <c r="B89" s="8">
         <v>86</v>
       </c>
@@ -4711,7 +4701,7 @@
       </c>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="2:13" ht="13.5" thickBot="1">
+    <row r="90" spans="2:13" ht="13.8" thickBot="1">
       <c r="B90" s="8">
         <v>87</v>
       </c>
@@ -4748,7 +4738,7 @@
       </c>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="2:13" ht="13.5" thickBot="1">
+    <row r="91" spans="2:13" ht="13.8" thickBot="1">
       <c r="B91" s="8">
         <v>88</v>
       </c>
@@ -4785,7 +4775,7 @@
       </c>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="2:13" ht="13.5" thickBot="1">
+    <row r="92" spans="2:13" ht="13.8" thickBot="1">
       <c r="B92" s="8">
         <v>89</v>
       </c>
@@ -4822,7 +4812,7 @@
       </c>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="2:13" ht="13.5" thickBot="1">
+    <row r="93" spans="2:13" ht="13.8" thickBot="1">
       <c r="B93" s="8">
         <v>90</v>
       </c>
@@ -4859,7 +4849,7 @@
       </c>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="2:13" ht="13.5" thickBot="1">
+    <row r="94" spans="2:13" ht="13.8" thickBot="1">
       <c r="B94" s="8">
         <v>91</v>
       </c>
@@ -4896,7 +4886,7 @@
       </c>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="2:13" ht="13.5" thickBot="1">
+    <row r="95" spans="2:13" ht="13.8" thickBot="1">
       <c r="B95" s="8">
         <v>92</v>
       </c>
@@ -4933,7 +4923,7 @@
       </c>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="2:13" ht="13.5" thickBot="1">
+    <row r="96" spans="2:13" ht="13.8" thickBot="1">
       <c r="B96" s="8">
         <v>93</v>
       </c>
@@ -4970,7 +4960,7 @@
       </c>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="2:13" ht="13.5" thickBot="1">
+    <row r="97" spans="2:13" ht="13.8" thickBot="1">
       <c r="B97" s="8">
         <v>94</v>
       </c>
@@ -5007,7 +4997,7 @@
       </c>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="2:13" ht="13.5" thickBot="1">
+    <row r="98" spans="2:13" ht="13.8" thickBot="1">
       <c r="B98" s="8">
         <v>95</v>
       </c>
@@ -5044,7 +5034,7 @@
       </c>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="2:13" ht="13.5" thickBot="1">
+    <row r="99" spans="2:13" ht="13.8" thickBot="1">
       <c r="B99" s="8">
         <v>96</v>
       </c>
@@ -5081,7 +5071,7 @@
       </c>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="2:13" ht="13.5" thickBot="1">
+    <row r="100" spans="2:13" ht="13.8" thickBot="1">
       <c r="B100" s="8">
         <v>97</v>
       </c>
@@ -5118,7 +5108,7 @@
       </c>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="2:13" ht="13.5" thickBot="1">
+    <row r="101" spans="2:13" ht="13.8" thickBot="1">
       <c r="B101" s="8">
         <v>98</v>
       </c>
@@ -5155,7 +5145,7 @@
       </c>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="2:13" ht="13.5" thickBot="1">
+    <row r="102" spans="2:13" ht="13.8" thickBot="1">
       <c r="B102" s="8">
         <v>99</v>
       </c>
@@ -5192,7 +5182,7 @@
       </c>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="2:13" ht="13.5" thickBot="1">
+    <row r="103" spans="2:13" ht="13.8" thickBot="1">
       <c r="B103" s="8">
         <v>100</v>
       </c>
@@ -5229,7 +5219,7 @@
       </c>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="2:13" ht="13.5" thickBot="1">
+    <row r="104" spans="2:13" ht="13.8" thickBot="1">
       <c r="B104" s="8">
         <v>101</v>
       </c>
@@ -5266,7 +5256,7 @@
       </c>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="2:13" ht="13.5" thickBot="1">
+    <row r="105" spans="2:13" ht="13.8" thickBot="1">
       <c r="B105" s="8">
         <v>102</v>
       </c>
@@ -5303,7 +5293,7 @@
       </c>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="2:13" ht="13.5" thickBot="1">
+    <row r="106" spans="2:13" ht="13.8" thickBot="1">
       <c r="B106" s="8">
         <v>103</v>
       </c>
@@ -5340,7 +5330,7 @@
       </c>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="2:13" ht="13.5" thickBot="1">
+    <row r="107" spans="2:13" ht="13.8" thickBot="1">
       <c r="B107" s="8">
         <v>104</v>
       </c>
@@ -5377,7 +5367,7 @@
       </c>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:13" ht="13.5" thickBot="1">
+    <row r="108" spans="2:13" ht="13.8" thickBot="1">
       <c r="B108" s="8">
         <v>105</v>
       </c>
@@ -5414,7 +5404,7 @@
       </c>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="2:13" ht="13.5" thickBot="1">
+    <row r="109" spans="2:13" ht="13.8" thickBot="1">
       <c r="B109" s="8">
         <v>106</v>
       </c>
@@ -5451,7 +5441,7 @@
       </c>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="2:13" ht="13.5" thickBot="1">
+    <row r="110" spans="2:13" ht="13.8" thickBot="1">
       <c r="B110" s="8">
         <v>107</v>
       </c>
@@ -5488,7 +5478,7 @@
       </c>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="2:13" ht="13.5" thickBot="1">
+    <row r="111" spans="2:13" ht="13.8" thickBot="1">
       <c r="B111" s="8">
         <v>108</v>
       </c>
@@ -5525,7 +5515,7 @@
       </c>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:13" ht="13.5" thickBot="1">
+    <row r="112" spans="2:13" ht="13.8" thickBot="1">
       <c r="B112" s="8">
         <v>109</v>
       </c>
@@ -5562,7 +5552,7 @@
       </c>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="2:13" ht="13.5" thickBot="1">
+    <row r="113" spans="2:13" ht="13.8" thickBot="1">
       <c r="B113" s="8">
         <v>110</v>
       </c>
@@ -5599,7 +5589,7 @@
       </c>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="2:13" ht="13.5" thickBot="1">
+    <row r="114" spans="2:13" ht="13.8" thickBot="1">
       <c r="B114" s="8">
         <v>111</v>
       </c>
@@ -5636,7 +5626,7 @@
       </c>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="2:13" ht="13.5" thickBot="1">
+    <row r="115" spans="2:13" ht="13.8" thickBot="1">
       <c r="B115" s="8">
         <v>112</v>
       </c>
@@ -5673,7 +5663,7 @@
       </c>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="2:13" ht="13.5" thickBot="1">
+    <row r="116" spans="2:13" ht="13.8" thickBot="1">
       <c r="B116" s="8">
         <v>113</v>
       </c>
@@ -5710,7 +5700,7 @@
       </c>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="2:13" ht="13.5" thickBot="1">
+    <row r="117" spans="2:13" ht="13.8" thickBot="1">
       <c r="B117" s="8">
         <v>114</v>
       </c>
@@ -5747,7 +5737,7 @@
       </c>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:13" ht="13.5" thickBot="1">
+    <row r="118" spans="2:13" ht="13.8" thickBot="1">
       <c r="B118" s="8">
         <v>115</v>
       </c>
@@ -5784,7 +5774,7 @@
       </c>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="2:13" ht="13.5" thickBot="1">
+    <row r="119" spans="2:13" ht="13.8" thickBot="1">
       <c r="B119" s="8">
         <v>116</v>
       </c>
@@ -5821,7 +5811,7 @@
       </c>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:13" ht="13.5" thickBot="1">
+    <row r="120" spans="2:13" ht="13.8" thickBot="1">
       <c r="B120" s="8">
         <v>117</v>
       </c>
@@ -5858,7 +5848,7 @@
       </c>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="2:13" ht="13.5" thickBot="1">
+    <row r="121" spans="2:13" ht="13.8" thickBot="1">
       <c r="B121" s="8">
         <v>118</v>
       </c>
@@ -5895,7 +5885,7 @@
       </c>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="2:13" ht="13.5" thickBot="1">
+    <row r="122" spans="2:13" ht="13.8" thickBot="1">
       <c r="B122" s="8">
         <v>119</v>
       </c>
@@ -5932,7 +5922,7 @@
       </c>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="2:13" ht="13.5" thickBot="1">
+    <row r="123" spans="2:13" ht="13.8" thickBot="1">
       <c r="B123" s="8">
         <v>120</v>
       </c>
@@ -5969,7 +5959,7 @@
       </c>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="2:13" ht="13.5" thickBot="1">
+    <row r="124" spans="2:13" ht="13.8" thickBot="1">
       <c r="B124" s="8">
         <v>121</v>
       </c>
@@ -6006,7 +5996,7 @@
       </c>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="2:13" ht="13.5" thickBot="1">
+    <row r="125" spans="2:13" ht="13.8" thickBot="1">
       <c r="B125" s="8">
         <v>122</v>
       </c>
@@ -6043,7 +6033,7 @@
       </c>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="2:13" ht="13.5" thickBot="1">
+    <row r="126" spans="2:13" ht="13.8" thickBot="1">
       <c r="B126" s="8">
         <v>123</v>
       </c>
@@ -6080,7 +6070,7 @@
       </c>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="2:13" ht="13.5" thickBot="1">
+    <row r="127" spans="2:13" ht="13.8" thickBot="1">
       <c r="B127" s="8">
         <v>124</v>
       </c>
@@ -6117,7 +6107,7 @@
       </c>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="2:13" ht="13.5" thickBot="1">
+    <row r="128" spans="2:13" ht="13.8" thickBot="1">
       <c r="B128" s="8">
         <v>125</v>
       </c>
@@ -6154,7 +6144,7 @@
       </c>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="2:13" ht="13.5" thickBot="1">
+    <row r="129" spans="2:13" ht="13.8" thickBot="1">
       <c r="B129" s="8">
         <v>126</v>
       </c>
@@ -6191,7 +6181,7 @@
       </c>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="2:13" ht="13.5" thickBot="1">
+    <row r="130" spans="2:13" ht="13.8" thickBot="1">
       <c r="B130" s="8">
         <v>127</v>
       </c>
@@ -6228,7 +6218,7 @@
       </c>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="2:13" ht="13.5" thickBot="1">
+    <row r="131" spans="2:13" ht="13.8" thickBot="1">
       <c r="B131" s="8">
         <v>128</v>
       </c>
@@ -6265,7 +6255,7 @@
       </c>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="2:13" ht="13.5" thickBot="1">
+    <row r="132" spans="2:13" ht="13.8" thickBot="1">
       <c r="B132" s="8">
         <v>129</v>
       </c>
@@ -6302,7 +6292,7 @@
       </c>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="2:13" ht="13.5" thickBot="1">
+    <row r="133" spans="2:13" ht="13.8" thickBot="1">
       <c r="B133" s="8">
         <v>130</v>
       </c>
@@ -6339,7 +6329,7 @@
       </c>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="2:13" ht="13.5" thickBot="1">
+    <row r="134" spans="2:13" ht="13.8" thickBot="1">
       <c r="B134" s="8">
         <v>131</v>
       </c>
@@ -6376,7 +6366,7 @@
       </c>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="2:13" ht="13.5" thickBot="1">
+    <row r="135" spans="2:13" ht="13.8" thickBot="1">
       <c r="B135" s="8">
         <v>132</v>
       </c>
@@ -6413,7 +6403,7 @@
       </c>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="2:13" ht="13.5" thickBot="1">
+    <row r="136" spans="2:13" ht="13.8" thickBot="1">
       <c r="B136" s="8">
         <v>133</v>
       </c>
@@ -6450,7 +6440,7 @@
       </c>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="2:13" ht="13.5" thickBot="1">
+    <row r="137" spans="2:13" ht="13.8" thickBot="1">
       <c r="B137" s="8">
         <v>134</v>
       </c>
@@ -6487,7 +6477,7 @@
       </c>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="2:13" ht="13.5" thickBot="1">
+    <row r="138" spans="2:13" ht="13.8" thickBot="1">
       <c r="B138" s="8">
         <v>135</v>
       </c>
@@ -6524,7 +6514,7 @@
       </c>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="2:13" ht="13.5" thickBot="1">
+    <row r="139" spans="2:13" ht="13.8" thickBot="1">
       <c r="B139" s="8">
         <v>137</v>
       </c>
@@ -6561,7 +6551,7 @@
       </c>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="2:13" ht="13.5" thickBot="1">
+    <row r="140" spans="2:13" ht="13.8" thickBot="1">
       <c r="B140" s="8">
         <v>138</v>
       </c>
@@ -6598,7 +6588,7 @@
       </c>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="2:13" ht="13.5" thickBot="1">
+    <row r="141" spans="2:13" ht="13.8" thickBot="1">
       <c r="B141" s="8">
         <v>139</v>
       </c>
@@ -6635,7 +6625,7 @@
       </c>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="2:13" ht="13.5" thickBot="1">
+    <row r="142" spans="2:13" ht="13.8" thickBot="1">
       <c r="B142" s="8">
         <v>140</v>
       </c>
@@ -6672,7 +6662,7 @@
       </c>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="2:13" ht="13.5" thickBot="1">
+    <row r="143" spans="2:13" ht="13.8" thickBot="1">
       <c r="B143" s="8">
         <v>141</v>
       </c>
@@ -6709,7 +6699,7 @@
       </c>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="2:13" ht="13.5" thickBot="1">
+    <row r="144" spans="2:13" ht="13.8" thickBot="1">
       <c r="B144" s="8">
         <v>142</v>
       </c>
@@ -6746,7 +6736,7 @@
       </c>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="2:13" ht="13.5" thickBot="1">
+    <row r="145" spans="2:13" ht="13.8" thickBot="1">
       <c r="B145" s="8">
         <v>143</v>
       </c>
@@ -6783,7 +6773,7 @@
       </c>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="2:13" ht="13.5" thickBot="1">
+    <row r="146" spans="2:13" ht="13.8" thickBot="1">
       <c r="B146" s="8">
         <v>144</v>
       </c>
@@ -6820,7 +6810,7 @@
       </c>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="2:13" ht="13.5" thickBot="1">
+    <row r="147" spans="2:13" ht="13.8" thickBot="1">
       <c r="B147" s="8">
         <v>145</v>
       </c>
@@ -6857,7 +6847,7 @@
       </c>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="2:13" ht="13.5" thickBot="1">
+    <row r="148" spans="2:13" ht="13.8" thickBot="1">
       <c r="B148" s="8">
         <v>146</v>
       </c>
@@ -6894,7 +6884,7 @@
       </c>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="2:13" ht="13.5" thickBot="1">
+    <row r="149" spans="2:13" ht="13.8" thickBot="1">
       <c r="B149" s="8">
         <v>147</v>
       </c>
@@ -6931,7 +6921,7 @@
       </c>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" spans="2:13" ht="13.5" thickBot="1">
+    <row r="150" spans="2:13" ht="13.8" thickBot="1">
       <c r="B150" s="8">
         <v>148</v>
       </c>
@@ -6968,7 +6958,7 @@
       </c>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="2:13" ht="13.5" thickBot="1">
+    <row r="151" spans="2:13" ht="13.8" thickBot="1">
       <c r="B151" s="8">
         <v>149</v>
       </c>
@@ -7005,7 +6995,7 @@
       </c>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="2:13" ht="13.5" thickBot="1">
+    <row r="152" spans="2:13" ht="13.8" thickBot="1">
       <c r="B152" s="8">
         <v>150</v>
       </c>
@@ -7042,7 +7032,7 @@
       </c>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="2:13" ht="13.5" thickBot="1">
+    <row r="153" spans="2:13" ht="13.8" thickBot="1">
       <c r="B153" s="8">
         <v>151</v>
       </c>
@@ -7079,7 +7069,7 @@
       </c>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="2:13" ht="13.5" thickBot="1">
+    <row r="154" spans="2:13" ht="13.8" thickBot="1">
       <c r="B154" s="8">
         <v>152</v>
       </c>
@@ -7116,7 +7106,7 @@
       </c>
       <c r="M154" s="3"/>
     </row>
-    <row r="155" spans="2:13" ht="13.5" thickBot="1">
+    <row r="155" spans="2:13" ht="13.8" thickBot="1">
       <c r="B155" s="8">
         <v>153</v>
       </c>
@@ -7153,7 +7143,7 @@
       </c>
       <c r="M155" s="3"/>
     </row>
-    <row r="156" spans="2:13" ht="13.5" thickBot="1">
+    <row r="156" spans="2:13" ht="13.8" thickBot="1">
       <c r="B156" s="8">
         <v>154</v>
       </c>
@@ -7190,7 +7180,7 @@
       </c>
       <c r="M156" s="3"/>
     </row>
-    <row r="157" spans="2:13" ht="13.5" thickBot="1">
+    <row r="157" spans="2:13" ht="13.8" thickBot="1">
       <c r="B157" s="8">
         <v>155</v>
       </c>
@@ -7227,7 +7217,7 @@
       </c>
       <c r="M157" s="3"/>
     </row>
-    <row r="158" spans="2:13" ht="13.5" thickBot="1">
+    <row r="158" spans="2:13" ht="13.8" thickBot="1">
       <c r="B158" s="8">
         <v>156</v>
       </c>
@@ -7264,7 +7254,7 @@
       </c>
       <c r="M158" s="3"/>
     </row>
-    <row r="159" spans="2:13" ht="13.5" thickBot="1">
+    <row r="159" spans="2:13" ht="13.8" thickBot="1">
       <c r="B159" s="8">
         <v>157</v>
       </c>
@@ -7305,6 +7295,7 @@
       <c r="E160" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="C3:M3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="C2:M2"/>
   </mergeCells>
@@ -7318,17 +7309,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6DB972-6693-4F5D-8FB8-5B60CD56632A}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="13.5" thickBot="1">
+    <row r="2" spans="1:2" ht="13.8" thickBot="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7336,7 +7327,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.5" thickBot="1">
+    <row r="3" spans="1:2" ht="13.8" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>156</v>
       </c>
@@ -7449,17 +7440,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
@@ -7467,7 +7458,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.5" thickBot="1">
+    <row r="3" spans="1:2" ht="13.8" thickBot="1">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7475,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.5" thickBot="1">
+    <row r="4" spans="1:2" ht="13.8" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -7483,7 +7474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" thickBot="1">
+    <row r="5" spans="1:2" ht="13.8" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -7491,7 +7482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.5" thickBot="1">
+    <row r="6" spans="1:2" ht="13.8" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -7499,7 +7490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.5" thickBot="1">
+    <row r="7" spans="1:2" ht="13.8" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -7507,7 +7498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.5" thickBot="1">
+    <row r="8" spans="1:2" ht="13.8" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -7515,7 +7506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.5" thickBot="1">
+    <row r="9" spans="1:2" ht="13.8" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -7523,7 +7514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.5" thickBot="1">
+    <row r="10" spans="1:2" ht="13.8" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -7531,7 +7522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.5" thickBot="1">
+    <row r="11" spans="1:2" ht="13.8" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -7539,7 +7530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.5" thickBot="1">
+    <row r="12" spans="1:2" ht="13.8" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
@@ -7547,7 +7538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.5" thickBot="1">
+    <row r="13" spans="1:2" ht="13.8" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -7555,7 +7546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.5" thickBot="1">
+    <row r="14" spans="1:2" ht="13.8" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>183</v>
       </c>
@@ -7563,7 +7554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.5" thickBot="1">
+    <row r="15" spans="1:2" ht="13.8" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -7571,7 +7562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.5" thickBot="1">
+    <row r="16" spans="1:2" ht="13.8" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>192</v>
       </c>
@@ -7581,6 +7572,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7595,33 +7587,33 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="C3" s="26" t="s">
@@ -8047,27 +8039,27 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="8" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="8" width="21.109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" customHeight="1">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1">
       <c r="C3" s="14" t="s">
@@ -8111,7 +8103,7 @@
       <c r="G4" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="44" cm="1">
+      <c r="H4" s="40" cm="1">
         <f t="array" ref="H4:H11">VLOOKUP(G4:G11,Ubicaciones!$A$2:$B$15,2,)</f>
         <v>13</v>
       </c>
@@ -8136,7 +8128,7 @@
       <c r="G5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="40">
         <v>13</v>
       </c>
       <c r="I5" s="17"/>
@@ -8160,7 +8152,7 @@
       <c r="G6" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="40">
         <v>13</v>
       </c>
       <c r="I6" s="17"/>
@@ -8184,7 +8176,7 @@
       <c r="G7" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="40">
         <v>13</v>
       </c>
       <c r="I7" s="17"/>
@@ -8208,7 +8200,7 @@
       <c r="G8" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="40">
         <v>13</v>
       </c>
       <c r="I8" s="17"/>
@@ -8232,7 +8224,7 @@
       <c r="G9" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="40">
         <v>13</v>
       </c>
       <c r="I9" s="17"/>
@@ -8256,7 +8248,7 @@
       <c r="G10" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="40">
         <v>13</v>
       </c>
       <c r="I10" s="17"/>
@@ -8280,7 +8272,7 @@
       <c r="G11" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="40">
         <v>13</v>
       </c>
       <c r="I11" s="3"/>
@@ -8301,9 +8293,9 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">

--- a/Reactivos.xlsx
+++ b/Reactivos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tadeo\Desktop\queChimbaSos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAW MAÑANA\Desktop\Proyecto Quimica\queChimbaSos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1BC3A-D791-462E-893B-7C3B696B5E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Listado de reactivos del almacé" sheetId="1" r:id="rId1"/>
@@ -860,13 +859,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m\-yyyy"/>
     <numFmt numFmtId="165" formatCode="d\-m\-yyyy"/>
     <numFmt numFmtId="166" formatCode="m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -953,6 +952,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1115,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1225,6 +1231,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1450,20 +1459,20 @@
       <selection activeCell="C3" sqref="C3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.109375" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" customHeight="1" thickBot="1"/>
@@ -1518,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="14.4" thickBot="1">
+    <row r="4" spans="2:14" ht="15" thickBot="1">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1556,7 +1565,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:14" ht="14.4" thickBot="1">
+    <row r="5" spans="2:14" ht="15" thickBot="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1593,7 +1602,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:14" ht="14.4" thickBot="1">
+    <row r="6" spans="2:14" ht="15" thickBot="1">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1630,7 +1639,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:14" ht="14.4" thickBot="1">
+    <row r="7" spans="2:14" ht="15" thickBot="1">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1667,7 +1676,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:14" ht="14.4" thickBot="1">
+    <row r="8" spans="2:14" ht="15" thickBot="1">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1704,7 +1713,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:14" ht="14.4" thickBot="1">
+    <row r="9" spans="2:14" ht="15" thickBot="1">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1741,7 +1750,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="2:14" ht="14.4" thickBot="1">
+    <row r="10" spans="2:14" ht="15" thickBot="1">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1778,7 +1787,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:14" ht="14.4" thickBot="1">
+    <row r="11" spans="2:14" ht="15" thickBot="1">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1815,7 +1824,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="14.4" thickBot="1">
+    <row r="12" spans="2:14" ht="15" thickBot="1">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1852,7 +1861,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:14" ht="13.8" thickBot="1">
+    <row r="13" spans="2:14" ht="13.5" thickBot="1">
       <c r="B13" s="8">
         <v>10</v>
       </c>
@@ -1889,7 +1898,7 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="2:14" ht="13.8" thickBot="1">
+    <row r="14" spans="2:14" ht="13.5" thickBot="1">
       <c r="B14" s="8">
         <v>11</v>
       </c>
@@ -1926,7 +1935,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:14" ht="13.8" thickBot="1">
+    <row r="15" spans="2:14" ht="13.5" thickBot="1">
       <c r="B15" s="8">
         <v>12</v>
       </c>
@@ -1963,7 +1972,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="2:14" ht="13.8" thickBot="1">
+    <row r="16" spans="2:14" ht="13.5" thickBot="1">
       <c r="B16" s="8">
         <v>13</v>
       </c>
@@ -2000,7 +2009,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="2:13" ht="13.8" thickBot="1">
+    <row r="17" spans="2:13" ht="13.5" thickBot="1">
       <c r="B17" s="8">
         <v>14</v>
       </c>
@@ -2037,7 +2046,7 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="2:13" ht="13.8" thickBot="1">
+    <row r="18" spans="2:13" ht="13.5" thickBot="1">
       <c r="B18" s="8">
         <v>15</v>
       </c>
@@ -2074,7 +2083,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="2:13" ht="13.8" thickBot="1">
+    <row r="19" spans="2:13" ht="13.5" thickBot="1">
       <c r="B19" s="8">
         <v>16</v>
       </c>
@@ -2111,7 +2120,7 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="2:13" ht="13.8" thickBot="1">
+    <row r="20" spans="2:13" ht="13.5" thickBot="1">
       <c r="B20" s="8">
         <v>17</v>
       </c>
@@ -2148,7 +2157,7 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="2:13" ht="13.8" thickBot="1">
+    <row r="21" spans="2:13" ht="13.5" thickBot="1">
       <c r="B21" s="8">
         <v>18</v>
       </c>
@@ -2185,7 +2194,7 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="2:13" ht="13.8" thickBot="1">
+    <row r="22" spans="2:13" ht="13.5" thickBot="1">
       <c r="B22" s="8">
         <v>19</v>
       </c>
@@ -2222,7 +2231,7 @@
       </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="2:13" ht="13.8" thickBot="1">
+    <row r="23" spans="2:13" ht="13.5" thickBot="1">
       <c r="B23" s="8">
         <v>20</v>
       </c>
@@ -2259,7 +2268,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="2:13" ht="13.8" thickBot="1">
+    <row r="24" spans="2:13" ht="13.5" thickBot="1">
       <c r="B24" s="8">
         <v>21</v>
       </c>
@@ -2296,7 +2305,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="2:13" ht="13.8" thickBot="1">
+    <row r="25" spans="2:13" ht="13.5" thickBot="1">
       <c r="B25" s="8">
         <v>22</v>
       </c>
@@ -2333,7 +2342,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="2:13" ht="13.8" thickBot="1">
+    <row r="26" spans="2:13" ht="13.5" thickBot="1">
       <c r="B26" s="8">
         <v>23</v>
       </c>
@@ -2370,7 +2379,7 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="2:13" ht="13.8" thickBot="1">
+    <row r="27" spans="2:13" ht="13.5" thickBot="1">
       <c r="B27" s="8">
         <v>24</v>
       </c>
@@ -2407,7 +2416,7 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="2:13" ht="13.8" thickBot="1">
+    <row r="28" spans="2:13" ht="13.5" thickBot="1">
       <c r="B28" s="8">
         <v>25</v>
       </c>
@@ -2444,7 +2453,7 @@
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="2:13" ht="13.8" thickBot="1">
+    <row r="29" spans="2:13" ht="13.5" thickBot="1">
       <c r="B29" s="8">
         <v>26</v>
       </c>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="2:13" ht="13.8" thickBot="1">
+    <row r="30" spans="2:13" ht="13.5" thickBot="1">
       <c r="B30" s="8">
         <v>27</v>
       </c>
@@ -2518,7 +2527,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="2:13" ht="13.8" thickBot="1">
+    <row r="31" spans="2:13" ht="13.5" thickBot="1">
       <c r="B31" s="8">
         <v>28</v>
       </c>
@@ -2555,7 +2564,7 @@
       </c>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="2:13" ht="13.8" thickBot="1">
+    <row r="32" spans="2:13" ht="13.5" thickBot="1">
       <c r="B32" s="8">
         <v>29</v>
       </c>
@@ -2592,7 +2601,7 @@
       </c>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="2:13" ht="13.8" thickBot="1">
+    <row r="33" spans="2:13" ht="13.5" thickBot="1">
       <c r="B33" s="8">
         <v>30</v>
       </c>
@@ -2629,7 +2638,7 @@
       </c>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="2:13" ht="13.8" thickBot="1">
+    <row r="34" spans="2:13" ht="13.5" thickBot="1">
       <c r="B34" s="8">
         <v>31</v>
       </c>
@@ -2666,7 +2675,7 @@
       </c>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="2:13" ht="13.8" thickBot="1">
+    <row r="35" spans="2:13" ht="13.5" thickBot="1">
       <c r="B35" s="8">
         <v>32</v>
       </c>
@@ -2703,7 +2712,7 @@
       </c>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="2:13" ht="13.8" thickBot="1">
+    <row r="36" spans="2:13" ht="13.5" thickBot="1">
       <c r="B36" s="8">
         <v>33</v>
       </c>
@@ -2740,7 +2749,7 @@
       </c>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="2:13" ht="13.8" thickBot="1">
+    <row r="37" spans="2:13" ht="13.5" thickBot="1">
       <c r="B37" s="8">
         <v>34</v>
       </c>
@@ -2777,7 +2786,7 @@
       </c>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="2:13" ht="13.8" thickBot="1">
+    <row r="38" spans="2:13" ht="13.5" thickBot="1">
       <c r="B38" s="8">
         <v>35</v>
       </c>
@@ -2814,7 +2823,7 @@
       </c>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="2:13" ht="13.8" thickBot="1">
+    <row r="39" spans="2:13" ht="13.5" thickBot="1">
       <c r="B39" s="8">
         <v>36</v>
       </c>
@@ -2851,7 +2860,7 @@
       </c>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="2:13" ht="13.8" thickBot="1">
+    <row r="40" spans="2:13" ht="13.5" thickBot="1">
       <c r="B40" s="8">
         <v>37</v>
       </c>
@@ -2888,7 +2897,7 @@
       </c>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="2:13" ht="13.8" thickBot="1">
+    <row r="41" spans="2:13" ht="13.5" thickBot="1">
       <c r="B41" s="8">
         <v>38</v>
       </c>
@@ -2925,7 +2934,7 @@
       </c>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="2:13" ht="13.8" thickBot="1">
+    <row r="42" spans="2:13" ht="13.5" thickBot="1">
       <c r="B42" s="8">
         <v>39</v>
       </c>
@@ -2962,7 +2971,7 @@
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="2:13" ht="13.8" thickBot="1">
+    <row r="43" spans="2:13" ht="13.5" thickBot="1">
       <c r="B43" s="8">
         <v>40</v>
       </c>
@@ -2999,7 +3008,7 @@
       </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="2:13" ht="13.8" thickBot="1">
+    <row r="44" spans="2:13" ht="13.5" thickBot="1">
       <c r="B44" s="8">
         <v>41</v>
       </c>
@@ -3036,7 +3045,7 @@
       </c>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="2:13" ht="13.8" thickBot="1">
+    <row r="45" spans="2:13" ht="13.5" thickBot="1">
       <c r="B45" s="8">
         <v>42</v>
       </c>
@@ -3073,7 +3082,7 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="2:13" ht="13.8" thickBot="1">
+    <row r="46" spans="2:13" ht="13.5" thickBot="1">
       <c r="B46" s="8">
         <v>43</v>
       </c>
@@ -3110,7 +3119,7 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="2:13" ht="13.8" thickBot="1">
+    <row r="47" spans="2:13" ht="13.5" thickBot="1">
       <c r="B47" s="8">
         <v>44</v>
       </c>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="2:13" ht="13.8" thickBot="1">
+    <row r="48" spans="2:13" ht="13.5" thickBot="1">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -3184,7 +3193,7 @@
       </c>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="2:13" ht="13.8" thickBot="1">
+    <row r="49" spans="2:13" ht="13.5" thickBot="1">
       <c r="B49" s="8">
         <v>46</v>
       </c>
@@ -3221,7 +3230,7 @@
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="2:13" ht="13.8" thickBot="1">
+    <row r="50" spans="2:13" ht="13.5" thickBot="1">
       <c r="B50" s="8">
         <v>47</v>
       </c>
@@ -3258,7 +3267,7 @@
       </c>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="2:13" ht="13.8" thickBot="1">
+    <row r="51" spans="2:13" ht="13.5" thickBot="1">
       <c r="B51" s="8">
         <v>48</v>
       </c>
@@ -3295,7 +3304,7 @@
       </c>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="2:13" ht="13.8" thickBot="1">
+    <row r="52" spans="2:13" ht="13.5" thickBot="1">
       <c r="B52" s="8">
         <v>49</v>
       </c>
@@ -3332,7 +3341,7 @@
       </c>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="2:13" ht="13.8" thickBot="1">
+    <row r="53" spans="2:13" ht="13.5" thickBot="1">
       <c r="B53" s="8">
         <v>50</v>
       </c>
@@ -3369,7 +3378,7 @@
       </c>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="2:13" ht="13.8" thickBot="1">
+    <row r="54" spans="2:13" ht="13.5" thickBot="1">
       <c r="B54" s="8">
         <v>51</v>
       </c>
@@ -3406,7 +3415,7 @@
       </c>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="2:13" ht="13.8" thickBot="1">
+    <row r="55" spans="2:13" ht="13.5" thickBot="1">
       <c r="B55" s="8">
         <v>52</v>
       </c>
@@ -3443,7 +3452,7 @@
       </c>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="2:13" ht="13.8" thickBot="1">
+    <row r="56" spans="2:13" ht="13.5" thickBot="1">
       <c r="B56" s="8">
         <v>53</v>
       </c>
@@ -3480,7 +3489,7 @@
       </c>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="2:13" ht="13.8" thickBot="1">
+    <row r="57" spans="2:13" ht="13.5" thickBot="1">
       <c r="B57" s="8">
         <v>54</v>
       </c>
@@ -3517,7 +3526,7 @@
       </c>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="2:13" ht="13.8" thickBot="1">
+    <row r="58" spans="2:13" ht="13.5" thickBot="1">
       <c r="B58" s="8">
         <v>55</v>
       </c>
@@ -3554,7 +3563,7 @@
       </c>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="2:13" ht="13.8" thickBot="1">
+    <row r="59" spans="2:13" ht="13.5" thickBot="1">
       <c r="B59" s="8">
         <v>56</v>
       </c>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="2:13" ht="13.8" thickBot="1">
+    <row r="60" spans="2:13" ht="13.5" thickBot="1">
       <c r="B60" s="8">
         <v>57</v>
       </c>
@@ -3628,7 +3637,7 @@
       </c>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="2:13" ht="13.8" thickBot="1">
+    <row r="61" spans="2:13" ht="13.5" thickBot="1">
       <c r="B61" s="8">
         <v>58</v>
       </c>
@@ -3665,7 +3674,7 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="2:13" ht="13.8" thickBot="1">
+    <row r="62" spans="2:13" ht="13.5" thickBot="1">
       <c r="B62" s="8">
         <v>59</v>
       </c>
@@ -3702,7 +3711,7 @@
       </c>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="2:13" ht="13.8" thickBot="1">
+    <row r="63" spans="2:13" ht="13.5" thickBot="1">
       <c r="B63" s="8">
         <v>60</v>
       </c>
@@ -3739,7 +3748,7 @@
       </c>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="2:13" ht="13.8" thickBot="1">
+    <row r="64" spans="2:13" ht="13.5" thickBot="1">
       <c r="B64" s="8">
         <v>61</v>
       </c>
@@ -3776,7 +3785,7 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="2:13" ht="13.8" thickBot="1">
+    <row r="65" spans="2:13" ht="13.5" thickBot="1">
       <c r="B65" s="8">
         <v>62</v>
       </c>
@@ -3813,7 +3822,7 @@
       </c>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="2:13" ht="13.8" thickBot="1">
+    <row r="66" spans="2:13" ht="13.5" thickBot="1">
       <c r="B66" s="8">
         <v>63</v>
       </c>
@@ -3850,7 +3859,7 @@
       </c>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="2:13" ht="13.8" thickBot="1">
+    <row r="67" spans="2:13" ht="13.5" thickBot="1">
       <c r="B67" s="8">
         <v>64</v>
       </c>
@@ -3887,7 +3896,7 @@
       </c>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="2:13" ht="13.8" thickBot="1">
+    <row r="68" spans="2:13" ht="13.5" thickBot="1">
       <c r="B68" s="8">
         <v>65</v>
       </c>
@@ -3924,7 +3933,7 @@
       </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="2:13" ht="13.8" thickBot="1">
+    <row r="69" spans="2:13" ht="13.5" thickBot="1">
       <c r="B69" s="8">
         <v>66</v>
       </c>
@@ -3961,7 +3970,7 @@
       </c>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="2:13" ht="13.8" thickBot="1">
+    <row r="70" spans="2:13" ht="13.5" thickBot="1">
       <c r="B70" s="8">
         <v>67</v>
       </c>
@@ -3998,7 +4007,7 @@
       </c>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="2:13" ht="13.8" thickBot="1">
+    <row r="71" spans="2:13" ht="13.5" thickBot="1">
       <c r="B71" s="8">
         <v>68</v>
       </c>
@@ -4035,7 +4044,7 @@
       </c>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="2:13" ht="13.8" thickBot="1">
+    <row r="72" spans="2:13" ht="13.5" thickBot="1">
       <c r="B72" s="8">
         <v>69</v>
       </c>
@@ -4072,7 +4081,7 @@
       </c>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="2:13" ht="13.8" thickBot="1">
+    <row r="73" spans="2:13" ht="13.5" thickBot="1">
       <c r="B73" s="8">
         <v>70</v>
       </c>
@@ -4109,7 +4118,7 @@
       </c>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="2:13" ht="13.8" thickBot="1">
+    <row r="74" spans="2:13" ht="13.5" thickBot="1">
       <c r="B74" s="8">
         <v>71</v>
       </c>
@@ -4146,7 +4155,7 @@
       </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="2:13" ht="13.8" thickBot="1">
+    <row r="75" spans="2:13" ht="13.5" thickBot="1">
       <c r="B75" s="8">
         <v>72</v>
       </c>
@@ -4183,7 +4192,7 @@
       </c>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="2:13" ht="13.8" thickBot="1">
+    <row r="76" spans="2:13" ht="13.5" thickBot="1">
       <c r="B76" s="8">
         <v>73</v>
       </c>
@@ -4220,7 +4229,7 @@
       </c>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="2:13" ht="13.8" thickBot="1">
+    <row r="77" spans="2:13" ht="13.5" thickBot="1">
       <c r="B77" s="8">
         <v>74</v>
       </c>
@@ -4257,7 +4266,7 @@
       </c>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="2:13" ht="13.8" thickBot="1">
+    <row r="78" spans="2:13" ht="13.5" thickBot="1">
       <c r="B78" s="8">
         <v>75</v>
       </c>
@@ -4294,7 +4303,7 @@
       </c>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="2:13" ht="13.8" thickBot="1">
+    <row r="79" spans="2:13" ht="13.5" thickBot="1">
       <c r="B79" s="8">
         <v>76</v>
       </c>
@@ -4331,7 +4340,7 @@
       </c>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="2:13" ht="13.8" thickBot="1">
+    <row r="80" spans="2:13" ht="13.5" thickBot="1">
       <c r="B80" s="8">
         <v>77</v>
       </c>
@@ -4368,7 +4377,7 @@
       </c>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="2:13" ht="13.8" thickBot="1">
+    <row r="81" spans="2:13" ht="13.5" thickBot="1">
       <c r="B81" s="8">
         <v>78</v>
       </c>
@@ -4405,7 +4414,7 @@
       </c>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="2:13" ht="13.8" thickBot="1">
+    <row r="82" spans="2:13" ht="13.5" thickBot="1">
       <c r="B82" s="8">
         <v>79</v>
       </c>
@@ -4442,7 +4451,7 @@
       </c>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="2:13" ht="13.8" thickBot="1">
+    <row r="83" spans="2:13" ht="13.5" thickBot="1">
       <c r="B83" s="8">
         <v>80</v>
       </c>
@@ -4479,7 +4488,7 @@
       </c>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="2:13" ht="13.8" thickBot="1">
+    <row r="84" spans="2:13" ht="13.5" thickBot="1">
       <c r="B84" s="8">
         <v>81</v>
       </c>
@@ -4516,7 +4525,7 @@
       </c>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="2:13" ht="13.8" thickBot="1">
+    <row r="85" spans="2:13" ht="13.5" thickBot="1">
       <c r="B85" s="8">
         <v>82</v>
       </c>
@@ -4553,7 +4562,7 @@
       </c>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="2:13" ht="13.8" thickBot="1">
+    <row r="86" spans="2:13" ht="13.5" thickBot="1">
       <c r="B86" s="8">
         <v>83</v>
       </c>
@@ -4590,7 +4599,7 @@
       </c>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="2:13" ht="13.8" thickBot="1">
+    <row r="87" spans="2:13" ht="13.5" thickBot="1">
       <c r="B87" s="8">
         <v>84</v>
       </c>
@@ -4627,7 +4636,7 @@
       </c>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="2:13" ht="13.8" thickBot="1">
+    <row r="88" spans="2:13" ht="13.5" thickBot="1">
       <c r="B88" s="8">
         <v>85</v>
       </c>
@@ -4664,7 +4673,7 @@
       </c>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="2:13" ht="13.8" thickBot="1">
+    <row r="89" spans="2:13" ht="13.5" thickBot="1">
       <c r="B89" s="8">
         <v>86</v>
       </c>
@@ -4701,7 +4710,7 @@
       </c>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="2:13" ht="13.8" thickBot="1">
+    <row r="90" spans="2:13" ht="13.5" thickBot="1">
       <c r="B90" s="8">
         <v>87</v>
       </c>
@@ -4738,7 +4747,7 @@
       </c>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="2:13" ht="13.8" thickBot="1">
+    <row r="91" spans="2:13" ht="13.5" thickBot="1">
       <c r="B91" s="8">
         <v>88</v>
       </c>
@@ -4775,7 +4784,7 @@
       </c>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="2:13" ht="13.8" thickBot="1">
+    <row r="92" spans="2:13" ht="13.5" thickBot="1">
       <c r="B92" s="8">
         <v>89</v>
       </c>
@@ -4812,7 +4821,7 @@
       </c>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="2:13" ht="13.8" thickBot="1">
+    <row r="93" spans="2:13" ht="13.5" thickBot="1">
       <c r="B93" s="8">
         <v>90</v>
       </c>
@@ -4849,7 +4858,7 @@
       </c>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="2:13" ht="13.8" thickBot="1">
+    <row r="94" spans="2:13" ht="13.5" thickBot="1">
       <c r="B94" s="8">
         <v>91</v>
       </c>
@@ -4886,7 +4895,7 @@
       </c>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="2:13" ht="13.8" thickBot="1">
+    <row r="95" spans="2:13" ht="13.5" thickBot="1">
       <c r="B95" s="8">
         <v>92</v>
       </c>
@@ -4923,7 +4932,7 @@
       </c>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="2:13" ht="13.8" thickBot="1">
+    <row r="96" spans="2:13" ht="13.5" thickBot="1">
       <c r="B96" s="8">
         <v>93</v>
       </c>
@@ -4960,7 +4969,7 @@
       </c>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="2:13" ht="13.8" thickBot="1">
+    <row r="97" spans="2:13" ht="13.5" thickBot="1">
       <c r="B97" s="8">
         <v>94</v>
       </c>
@@ -4997,7 +5006,7 @@
       </c>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="2:13" ht="13.8" thickBot="1">
+    <row r="98" spans="2:13" ht="13.5" thickBot="1">
       <c r="B98" s="8">
         <v>95</v>
       </c>
@@ -5034,7 +5043,7 @@
       </c>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="2:13" ht="13.8" thickBot="1">
+    <row r="99" spans="2:13" ht="13.5" thickBot="1">
       <c r="B99" s="8">
         <v>96</v>
       </c>
@@ -5071,7 +5080,7 @@
       </c>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="2:13" ht="13.8" thickBot="1">
+    <row r="100" spans="2:13" ht="13.5" thickBot="1">
       <c r="B100" s="8">
         <v>97</v>
       </c>
@@ -5108,7 +5117,7 @@
       </c>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="2:13" ht="13.8" thickBot="1">
+    <row r="101" spans="2:13" ht="13.5" thickBot="1">
       <c r="B101" s="8">
         <v>98</v>
       </c>
@@ -5145,7 +5154,7 @@
       </c>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="2:13" ht="13.8" thickBot="1">
+    <row r="102" spans="2:13" ht="13.5" thickBot="1">
       <c r="B102" s="8">
         <v>99</v>
       </c>
@@ -5182,7 +5191,7 @@
       </c>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="2:13" ht="13.8" thickBot="1">
+    <row r="103" spans="2:13" ht="13.5" thickBot="1">
       <c r="B103" s="8">
         <v>100</v>
       </c>
@@ -5219,7 +5228,7 @@
       </c>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="2:13" ht="13.8" thickBot="1">
+    <row r="104" spans="2:13" ht="13.5" thickBot="1">
       <c r="B104" s="8">
         <v>101</v>
       </c>
@@ -5256,7 +5265,7 @@
       </c>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="2:13" ht="13.8" thickBot="1">
+    <row r="105" spans="2:13" ht="13.5" thickBot="1">
       <c r="B105" s="8">
         <v>102</v>
       </c>
@@ -5293,7 +5302,7 @@
       </c>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="2:13" ht="13.8" thickBot="1">
+    <row r="106" spans="2:13" ht="13.5" thickBot="1">
       <c r="B106" s="8">
         <v>103</v>
       </c>
@@ -5330,7 +5339,7 @@
       </c>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="2:13" ht="13.8" thickBot="1">
+    <row r="107" spans="2:13" ht="13.5" thickBot="1">
       <c r="B107" s="8">
         <v>104</v>
       </c>
@@ -5367,7 +5376,7 @@
       </c>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:13" ht="13.8" thickBot="1">
+    <row r="108" spans="2:13" ht="13.5" thickBot="1">
       <c r="B108" s="8">
         <v>105</v>
       </c>
@@ -5404,7 +5413,7 @@
       </c>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="2:13" ht="13.8" thickBot="1">
+    <row r="109" spans="2:13" ht="13.5" thickBot="1">
       <c r="B109" s="8">
         <v>106</v>
       </c>
@@ -5441,7 +5450,7 @@
       </c>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="2:13" ht="13.8" thickBot="1">
+    <row r="110" spans="2:13" ht="13.5" thickBot="1">
       <c r="B110" s="8">
         <v>107</v>
       </c>
@@ -5478,7 +5487,7 @@
       </c>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="2:13" ht="13.8" thickBot="1">
+    <row r="111" spans="2:13" ht="13.5" thickBot="1">
       <c r="B111" s="8">
         <v>108</v>
       </c>
@@ -5515,7 +5524,7 @@
       </c>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:13" ht="13.8" thickBot="1">
+    <row r="112" spans="2:13" ht="13.5" thickBot="1">
       <c r="B112" s="8">
         <v>109</v>
       </c>
@@ -5552,7 +5561,7 @@
       </c>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="2:13" ht="13.8" thickBot="1">
+    <row r="113" spans="2:13" ht="13.5" thickBot="1">
       <c r="B113" s="8">
         <v>110</v>
       </c>
@@ -5589,7 +5598,7 @@
       </c>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="2:13" ht="13.8" thickBot="1">
+    <row r="114" spans="2:13" ht="13.5" thickBot="1">
       <c r="B114" s="8">
         <v>111</v>
       </c>
@@ -5626,7 +5635,7 @@
       </c>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="2:13" ht="13.8" thickBot="1">
+    <row r="115" spans="2:13" ht="13.5" thickBot="1">
       <c r="B115" s="8">
         <v>112</v>
       </c>
@@ -5663,7 +5672,7 @@
       </c>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="2:13" ht="13.8" thickBot="1">
+    <row r="116" spans="2:13" ht="13.5" thickBot="1">
       <c r="B116" s="8">
         <v>113</v>
       </c>
@@ -5700,7 +5709,7 @@
       </c>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="2:13" ht="13.8" thickBot="1">
+    <row r="117" spans="2:13" ht="13.5" thickBot="1">
       <c r="B117" s="8">
         <v>114</v>
       </c>
@@ -5737,7 +5746,7 @@
       </c>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:13" ht="13.8" thickBot="1">
+    <row r="118" spans="2:13" ht="13.5" thickBot="1">
       <c r="B118" s="8">
         <v>115</v>
       </c>
@@ -5774,7 +5783,7 @@
       </c>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="2:13" ht="13.8" thickBot="1">
+    <row r="119" spans="2:13" ht="13.5" thickBot="1">
       <c r="B119" s="8">
         <v>116</v>
       </c>
@@ -5811,7 +5820,7 @@
       </c>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:13" ht="13.8" thickBot="1">
+    <row r="120" spans="2:13" ht="13.5" thickBot="1">
       <c r="B120" s="8">
         <v>117</v>
       </c>
@@ -5848,7 +5857,7 @@
       </c>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="2:13" ht="13.8" thickBot="1">
+    <row r="121" spans="2:13" ht="13.5" thickBot="1">
       <c r="B121" s="8">
         <v>118</v>
       </c>
@@ -5885,7 +5894,7 @@
       </c>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="2:13" ht="13.8" thickBot="1">
+    <row r="122" spans="2:13" ht="13.5" thickBot="1">
       <c r="B122" s="8">
         <v>119</v>
       </c>
@@ -5922,7 +5931,7 @@
       </c>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="2:13" ht="13.8" thickBot="1">
+    <row r="123" spans="2:13" ht="13.5" thickBot="1">
       <c r="B123" s="8">
         <v>120</v>
       </c>
@@ -5959,7 +5968,7 @@
       </c>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="2:13" ht="13.8" thickBot="1">
+    <row r="124" spans="2:13" ht="13.5" thickBot="1">
       <c r="B124" s="8">
         <v>121</v>
       </c>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="2:13" ht="13.8" thickBot="1">
+    <row r="125" spans="2:13" ht="13.5" thickBot="1">
       <c r="B125" s="8">
         <v>122</v>
       </c>
@@ -6033,7 +6042,7 @@
       </c>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="2:13" ht="13.8" thickBot="1">
+    <row r="126" spans="2:13" ht="13.5" thickBot="1">
       <c r="B126" s="8">
         <v>123</v>
       </c>
@@ -6070,7 +6079,7 @@
       </c>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="2:13" ht="13.8" thickBot="1">
+    <row r="127" spans="2:13" ht="13.5" thickBot="1">
       <c r="B127" s="8">
         <v>124</v>
       </c>
@@ -6107,7 +6116,7 @@
       </c>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="2:13" ht="13.8" thickBot="1">
+    <row r="128" spans="2:13" ht="13.5" thickBot="1">
       <c r="B128" s="8">
         <v>125</v>
       </c>
@@ -6144,7 +6153,7 @@
       </c>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="2:13" ht="13.8" thickBot="1">
+    <row r="129" spans="2:13" ht="13.5" thickBot="1">
       <c r="B129" s="8">
         <v>126</v>
       </c>
@@ -6181,7 +6190,7 @@
       </c>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="2:13" ht="13.8" thickBot="1">
+    <row r="130" spans="2:13" ht="13.5" thickBot="1">
       <c r="B130" s="8">
         <v>127</v>
       </c>
@@ -6218,7 +6227,7 @@
       </c>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="2:13" ht="13.8" thickBot="1">
+    <row r="131" spans="2:13" ht="13.5" thickBot="1">
       <c r="B131" s="8">
         <v>128</v>
       </c>
@@ -6255,7 +6264,7 @@
       </c>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="2:13" ht="13.8" thickBot="1">
+    <row r="132" spans="2:13" ht="13.5" thickBot="1">
       <c r="B132" s="8">
         <v>129</v>
       </c>
@@ -6292,7 +6301,7 @@
       </c>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="2:13" ht="13.8" thickBot="1">
+    <row r="133" spans="2:13" ht="13.5" thickBot="1">
       <c r="B133" s="8">
         <v>130</v>
       </c>
@@ -6329,7 +6338,7 @@
       </c>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="2:13" ht="13.8" thickBot="1">
+    <row r="134" spans="2:13" ht="13.5" thickBot="1">
       <c r="B134" s="8">
         <v>131</v>
       </c>
@@ -6366,7 +6375,7 @@
       </c>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="2:13" ht="13.8" thickBot="1">
+    <row r="135" spans="2:13" ht="13.5" thickBot="1">
       <c r="B135" s="8">
         <v>132</v>
       </c>
@@ -6403,7 +6412,7 @@
       </c>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="2:13" ht="13.8" thickBot="1">
+    <row r="136" spans="2:13" ht="13.5" thickBot="1">
       <c r="B136" s="8">
         <v>133</v>
       </c>
@@ -6440,7 +6449,7 @@
       </c>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="2:13" ht="13.8" thickBot="1">
+    <row r="137" spans="2:13" ht="13.5" thickBot="1">
       <c r="B137" s="8">
         <v>134</v>
       </c>
@@ -6477,7 +6486,7 @@
       </c>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="2:13" ht="13.8" thickBot="1">
+    <row r="138" spans="2:13" ht="13.5" thickBot="1">
       <c r="B138" s="8">
         <v>135</v>
       </c>
@@ -6514,7 +6523,7 @@
       </c>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="2:13" ht="13.8" thickBot="1">
+    <row r="139" spans="2:13" ht="13.5" thickBot="1">
       <c r="B139" s="8">
         <v>137</v>
       </c>
@@ -6551,7 +6560,7 @@
       </c>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="2:13" ht="13.8" thickBot="1">
+    <row r="140" spans="2:13" ht="13.5" thickBot="1">
       <c r="B140" s="8">
         <v>138</v>
       </c>
@@ -6588,7 +6597,7 @@
       </c>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="2:13" ht="13.8" thickBot="1">
+    <row r="141" spans="2:13" ht="13.5" thickBot="1">
       <c r="B141" s="8">
         <v>139</v>
       </c>
@@ -6625,7 +6634,7 @@
       </c>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="2:13" ht="13.8" thickBot="1">
+    <row r="142" spans="2:13" ht="13.5" thickBot="1">
       <c r="B142" s="8">
         <v>140</v>
       </c>
@@ -6662,7 +6671,7 @@
       </c>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="2:13" ht="13.8" thickBot="1">
+    <row r="143" spans="2:13" ht="13.5" thickBot="1">
       <c r="B143" s="8">
         <v>141</v>
       </c>
@@ -6699,7 +6708,7 @@
       </c>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="2:13" ht="13.8" thickBot="1">
+    <row r="144" spans="2:13" ht="13.5" thickBot="1">
       <c r="B144" s="8">
         <v>142</v>
       </c>
@@ -6736,7 +6745,7 @@
       </c>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="2:13" ht="13.8" thickBot="1">
+    <row r="145" spans="2:13" ht="13.5" thickBot="1">
       <c r="B145" s="8">
         <v>143</v>
       </c>
@@ -6773,7 +6782,7 @@
       </c>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="2:13" ht="13.8" thickBot="1">
+    <row r="146" spans="2:13" ht="13.5" thickBot="1">
       <c r="B146" s="8">
         <v>144</v>
       </c>
@@ -6810,7 +6819,7 @@
       </c>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="2:13" ht="13.8" thickBot="1">
+    <row r="147" spans="2:13" ht="13.5" thickBot="1">
       <c r="B147" s="8">
         <v>145</v>
       </c>
@@ -6847,7 +6856,7 @@
       </c>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="2:13" ht="13.8" thickBot="1">
+    <row r="148" spans="2:13" ht="13.5" thickBot="1">
       <c r="B148" s="8">
         <v>146</v>
       </c>
@@ -6884,7 +6893,7 @@
       </c>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="2:13" ht="13.8" thickBot="1">
+    <row r="149" spans="2:13" ht="13.5" thickBot="1">
       <c r="B149" s="8">
         <v>147</v>
       </c>
@@ -6921,7 +6930,7 @@
       </c>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" spans="2:13" ht="13.8" thickBot="1">
+    <row r="150" spans="2:13" ht="13.5" thickBot="1">
       <c r="B150" s="8">
         <v>148</v>
       </c>
@@ -6958,7 +6967,7 @@
       </c>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="2:13" ht="13.8" thickBot="1">
+    <row r="151" spans="2:13" ht="13.5" thickBot="1">
       <c r="B151" s="8">
         <v>149</v>
       </c>
@@ -6995,7 +7004,7 @@
       </c>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="2:13" ht="13.8" thickBot="1">
+    <row r="152" spans="2:13" ht="13.5" thickBot="1">
       <c r="B152" s="8">
         <v>150</v>
       </c>
@@ -7032,7 +7041,7 @@
       </c>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="2:13" ht="13.8" thickBot="1">
+    <row r="153" spans="2:13" ht="13.5" thickBot="1">
       <c r="B153" s="8">
         <v>151</v>
       </c>
@@ -7069,7 +7078,7 @@
       </c>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="2:13" ht="13.8" thickBot="1">
+    <row r="154" spans="2:13" ht="13.5" thickBot="1">
       <c r="B154" s="8">
         <v>152</v>
       </c>
@@ -7106,7 +7115,7 @@
       </c>
       <c r="M154" s="3"/>
     </row>
-    <row r="155" spans="2:13" ht="13.8" thickBot="1">
+    <row r="155" spans="2:13" ht="13.5" thickBot="1">
       <c r="B155" s="8">
         <v>153</v>
       </c>
@@ -7143,7 +7152,7 @@
       </c>
       <c r="M155" s="3"/>
     </row>
-    <row r="156" spans="2:13" ht="13.8" thickBot="1">
+    <row r="156" spans="2:13" ht="13.5" thickBot="1">
       <c r="B156" s="8">
         <v>154</v>
       </c>
@@ -7180,7 +7189,7 @@
       </c>
       <c r="M156" s="3"/>
     </row>
-    <row r="157" spans="2:13" ht="13.8" thickBot="1">
+    <row r="157" spans="2:13" ht="13.5" thickBot="1">
       <c r="B157" s="8">
         <v>155</v>
       </c>
@@ -7217,7 +7226,7 @@
       </c>
       <c r="M157" s="3"/>
     </row>
-    <row r="158" spans="2:13" ht="13.8" thickBot="1">
+    <row r="158" spans="2:13" ht="13.5" thickBot="1">
       <c r="B158" s="8">
         <v>156</v>
       </c>
@@ -7254,7 +7263,7 @@
       </c>
       <c r="M158" s="3"/>
     </row>
-    <row r="159" spans="2:13" ht="13.8" thickBot="1">
+    <row r="159" spans="2:13" ht="13.5" thickBot="1">
       <c r="B159" s="8">
         <v>157</v>
       </c>
@@ -7295,7 +7304,7 @@
       <c r="E160" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:M3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C3:M3"/>
   <mergeCells count="1">
     <mergeCell ref="C2:M2"/>
   </mergeCells>
@@ -7306,20 +7315,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6DB972-6693-4F5D-8FB8-5B60CD56632A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="13.8" thickBot="1">
+    <row r="2" spans="1:2" ht="13.5" thickBot="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7327,7 +7336,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8" thickBot="1">
+    <row r="3" spans="1:2" ht="13.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>156</v>
       </c>
@@ -7437,20 +7446,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
@@ -7458,7 +7467,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8" thickBot="1">
+    <row r="3" spans="1:2" ht="13.5" thickBot="1">
       <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
@@ -7466,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickBot="1">
+    <row r="4" spans="1:2" ht="13.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -7474,7 +7483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.8" thickBot="1">
+    <row r="5" spans="1:2" ht="13.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -7482,7 +7491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.8" thickBot="1">
+    <row r="6" spans="1:2" ht="13.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -7490,7 +7499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.8" thickBot="1">
+    <row r="7" spans="1:2" ht="13.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -7498,7 +7507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.8" thickBot="1">
+    <row r="8" spans="1:2" ht="13.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -7506,7 +7515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.8" thickBot="1">
+    <row r="9" spans="1:2" ht="13.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -7514,7 +7523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.8" thickBot="1">
+    <row r="10" spans="1:2" ht="13.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -7522,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.8" thickBot="1">
+    <row r="11" spans="1:2" ht="13.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -7530,7 +7539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.8" thickBot="1">
+    <row r="12" spans="1:2" ht="13.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
@@ -7538,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.8" thickBot="1">
+    <row r="13" spans="1:2" ht="13.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
@@ -7546,7 +7555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.8" thickBot="1">
+    <row r="14" spans="1:2" ht="13.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>183</v>
       </c>
@@ -7554,7 +7563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.8" thickBot="1">
+    <row r="15" spans="1:2" ht="13.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -7562,7 +7571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.8" thickBot="1">
+    <row r="16" spans="1:2" ht="13.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>192</v>
       </c>
@@ -7577,26 +7586,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" activeCellId="2" sqref="G4 G7 G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8029,24 +8038,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="8" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8128,7 +8137,7 @@
       <c r="G5" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="45">
         <v>13</v>
       </c>
       <c r="I5" s="17"/>
@@ -8282,20 +8291,21 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480424D3-EDB6-4AAD-A08E-C07370F782DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
